--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA960FC-9E4F-4D04-809E-5273EC36CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270DACA-7C39-4F55-9F2B-36A5BE1C6294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="デジタル庁「会議等」" sheetId="1" r:id="rId1"/>
-    <sheet name="デジタル庁「ホーム」" sheetId="2" r:id="rId2"/>
+    <sheet name="jp-go-digital-news-meeting" sheetId="1" r:id="rId1"/>
+    <sheet name="jp-go-digital-news-news" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,241 +35,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
   <si>
     <t>第1回デジタル社会推進会議（令和3年9月6日開催）</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/zvKTxKMK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210907_meeting_conception_01.pdf</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/LykfW_XV</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/NbtVwXoh</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/NbtVwXoh</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デジタル社会構想会議の開催について（PDF／53KB）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第1回デジタル社会構想会議（令和3年9月28日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第2回デジタル社会構想会議（令和3年11月4日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/icPUoaig</t>
   </si>
   <si>
     <t>データ戦略ワーキンググループ（第1回）（令和3年10月25日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/9kD1WCFK</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/9kD1WCFK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第1回）（令和3年11月18日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/3zmv1HyO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第1回）（プラットフォームにおけるデータ取扱いルールの実装に関する検討会（第5回））（令和3年11月16日開催）</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/o88lhOm9</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>EBPM推進委員会（第1回）（令和3年11月4日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211021_meeting_my_number_wg_01.pdf</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/bKRna084</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループの開催について（PDF／91KB）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第1回）（令和3年10月22日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210906_meeting_executive_01.pdf</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/stdbnYdh</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デジタル社会推進会議幹事会の開催について（PDF／91KB）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第1回デジタル社会推進会議幹事会（令和3年9月10日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211109_meeting_extraordinary_administrative_research_committee_01.pdf</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211116_meeting_extraordinary_administrative_research_committee_03.pdf</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/54yivy_u</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/54yivy_u</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デジタル臨時行政調査会の開催について（PDF／75KB）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デジタル臨時行政調査会構成員（PDF／86KB）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デジタル臨時行政調査会（第1回）（令和3年11月16日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/EQfDTVuA</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>内閣官房情報通信技術（ＩＴ）総合戦略室 コンプライアンス委員会（令和3年8月27日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デジタル庁コンプライアンス委員会（令和3年9月29日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/HTQB-hAX</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>「デジタルの日」検討委員会設置のお知らせ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/AcLOjFsQ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マイナンバーカードの普及と健康保険証利用に関する関係府省庁会議（第5回）（令和3年9月29日開催）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/gQ6Pun4A</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>地方公共団体の基幹業務等システムの統一・標準化に関する関係府省会議（令和3年9月22日開催）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://myna.go.jp/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>医療費通知情報の閲覧機能をリリースしました</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トラストを確保したDX推進サブワーキンググループ（第1回）を開催しました</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会（第1回）を開催しました</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自治体職員×政府機関職員「デジタル改革共創プラットフォーム」が始まります</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting#digital-extraordinary-administrative-research-committee</t>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会を開催します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/fP9l2KD4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新重点計画の策定に向けてご意見を募集します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第2回デジタル社会構想会議を開催しました</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/7bIjgz40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ戦略へのご意見をお寄せください</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/ZYzU5DYY</t>
   </si>
   <si>
-    <t>ガバメントクラウド先行事業（市町村の基幹業務システム等）の採択結果を公表しました</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://www.digital.go.jp/posts/zytWmjcS</t>
   </si>
   <si>
-    <t>デジタル庁におけるガバメント・クラウド整備のためのクラウドサービスの提供－令和3年度地方公共団体による先行事業及びデジタル庁WEBサイト構築業務－の公募結果について</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>URL</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>更新日</t>
@@ -279,18 +215,294 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自治体職員×政府機関職員「デジタル改革共創プラットフォーム」が始まります</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/_gctmaGw</t>
+  </si>
+  <si>
+    <t>電気通信回線を通じた送信又は電磁的記録媒体の送付の方法及び情報提供ネットワークシステムを使用した送信の方法に関する技術的基準の一部改正に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/xpBE170a</t>
+  </si>
+  <si>
+    <t>行政手続における特定の個人を識別するための番号の利用等に関する法律に規定する個人番号、個人番号カード、特定個人情報の提供等に関する省令の一部改正に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/fP9l2KD4</t>
+  </si>
+  <si>
+    <t>（受付終了）新重点計画の策定に向けてご意見を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ZiAUlNJC</t>
+  </si>
+  <si>
+    <t>公的給付の支給等の迅速かつ確実な実施のための預貯金口座の登録等に関する法律施行規則案に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/7bIjgz40</t>
+  </si>
+  <si>
+    <t>（受付終了）データ戦略へのご意見をお寄せください</t>
+  </si>
+  <si>
+    <t>ガバメントクラウド先行事業（市町村の基幹業務システム等）の採択結果を公表しました</t>
+  </si>
+  <si>
+    <t>デジタル庁におけるガバメント・クラウド整備のためのクラウドサービスの提供－令和3年度地方公共団体による先行事業及びデジタル庁WEBサイト構築業務－の公募結果について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/tGZmsuPh</t>
+  </si>
+  <si>
+    <t>教育データ利活用についてのご意見を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/lCQU-uoB</t>
+  </si>
+  <si>
+    <t>マイナンバーカードの健康保険証利用の本格運用がスタートしました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/LbGO0j4g</t>
+  </si>
+  <si>
+    <t>「コロナワクチンの接種証明書（電子交付）の仕様に関するご意見」の取りまとめ結果を公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/6RFwVpXp</t>
+  </si>
+  <si>
+    <t>オープンデータ取組済自治体を更新しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/g7b3GZuP</t>
+  </si>
+  <si>
+    <t>「2021年デジタルの日」オンラインイベントを開催しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/KZ2w62RH</t>
+  </si>
+  <si>
+    <t>マイナンバーカードの健康保険証利用のデモイベントを実施しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/6E_MCWFZ</t>
+  </si>
+  <si>
+    <t>「デジ道（仮）」文書制作のコンセプトを公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/CFVm4laO</t>
+  </si>
+  <si>
+    <t>企業間の契約・決済について、全体像（見取り図）の設計に向けた検討を開始します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/OHfXf0Gp</t>
+  </si>
+  <si>
+    <t>民間事業者に対して公的個人認証サービスの利用に関する主務大臣認定を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/3XCS8cg4</t>
+  </si>
+  <si>
+    <t>デジタル大臣退任式・就任式を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/b-SItqGk</t>
+  </si>
+  <si>
+    <t>10月10日（日）開催！「2021年デジタルの日」オンラインイベント詳細を発表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/4vlrFBy3</t>
+  </si>
+  <si>
+    <t>新しいデジタル庁アイデアボックスが始まります</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/J3M3x7at</t>
+  </si>
+  <si>
+    <t>地方自治体からデジタル庁職員を公募します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/8pxOQG2O</t>
+  </si>
+  <si>
+    <t>懲戒処分の公表について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ckWVVAya</t>
+  </si>
+  <si>
+    <t>（受付終了）コロナワクチンの接種証明書（電子交付）の仕様に関するご意見を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/Bx1xWQBi</t>
+  </si>
+  <si>
+    <t>「2021年デジタルの日」に向けて、カウントダウン応援動画・楽曲が初解禁！</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/yS0M_VaX</t>
+  </si>
+  <si>
+    <t>デジタル・ガバメント推進標準ガイドラインを改定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/l9uhy2HU</t>
+  </si>
+  <si>
+    <t>ISMAPクラウドサービスリストを公開しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/NL3lOB9E</t>
+  </si>
+  <si>
+    <t>GIGAスクール構想についてのアンケートの取りまとめ結果を公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/cqcCJziK</t>
+  </si>
+  <si>
+    <t>デジタル庁の設置に伴う各種規則及び告示の制定並びに整備にかかる意見募集の結果が公表されました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/uWAA9Dcp</t>
+  </si>
+  <si>
+    <t>デジタル庁発足式を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/kMccIpBR</t>
+  </si>
+  <si>
+    <t>幹部等人事が決定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/TVSe2aRq</t>
+  </si>
+  <si>
+    <t>令和4年度予算概算要求・機構定員要求をとりまとめました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/7DD9AL91</t>
+  </si>
+  <si>
+    <t>「デジタル改革共創プラットフォーム（正式版）」のリニューアル予告-リニューアルに伴う正式版の一時サービス休止について-</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/Bca6lKg9</t>
+  </si>
+  <si>
+    <t>コンプライアンス委員会の設置について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/KVRUL5Ih</t>
+  </si>
+  <si>
+    <t>2021年デジタル社会推進賞の募集を開始します！</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/RigpA13o</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービスの普及促進に向けた意見交換会への参加事業者が決まりました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/2ZYjJ7wg</t>
+  </si>
+  <si>
+    <t>デジタル庁発足に向けたコンプライアンス体制の確保について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/CM4Regng</t>
+  </si>
+  <si>
+    <t>「国民との共創による政策実現のためのコミュニティプラットフォーム実証事業」への参加事業者を募集します！&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/1sZr0zP0</t>
+  </si>
+  <si>
+    <t>政府統一Webサイトに関する調達の入札説明会を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ThKAblNn</t>
+  </si>
+  <si>
+    <t>GIGAスクール構想についてのアンケートの分析事業者を決定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/eNt9UVNC</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービス（自治体手続） サービス検証等の参加自治体が決まりました&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/UsZ6cDXd</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/A8kKSe7F</t>
+  </si>
+  <si>
+    <t>マイナンバーカード紹介動画を公開しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/PKaVLvnv</t>
+  </si>
+  <si>
+    <t>（受付終了）GIGAスクール構想についてのアンケートを分析する事業者を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/qPLubLrj</t>
+  </si>
+  <si>
+    <t>令和3年度「こども霞が関見学デー」を開催しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/IKArEhyI</t>
+  </si>
+  <si>
+    <t>（受付終了）GIGAスクール構想について、教育に携わる皆様へアンケートのお願い</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/APzucCWQ</t>
+  </si>
+  <si>
+    <t>（受付終了）タブレットについて、小中高校生へアンケートのおねがい&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ZlptjPro</t>
+  </si>
+  <si>
+    <t>「デジタル社会の実現に向けた重点計画」を閣議決定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/p_9fVK2m</t>
+  </si>
+  <si>
+    <t>マイナポータルのデザインをリニューアル。児童手当現況届申請画面などが使いやすくなりました。</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/4PB81KNy</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -301,15 +513,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -326,10 +529,16 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -375,41 +584,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,255 +940,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" style="12" customWidth="1"/>
     <col min="2" max="2" width="50.19921875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="67.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="67.3984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
-        <v>44521</v>
+      <c r="A2" s="5">
+        <v>44435</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>44445</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>44449</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>44449</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>44461</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>44467</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>44467</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>44468</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>44468</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>44491</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>44491</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>44494</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>44504</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>44504</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>44516</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>44516</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>44516</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>44516</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>44518</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A7" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A10" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A17" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A20" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A21" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -984,147 +1199,569 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="50.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="67.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="37.296875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="13.796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44" style="9" customWidth="1"/>
+    <col min="3" max="3" width="73" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.296875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>44348</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>44365</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>44393</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>44407</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>44407</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>44412</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>44421</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>44428</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>44428</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>44431</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>44431</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>44435</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>44439</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>44439</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>44442</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>44452</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>44454</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>44455</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>44456</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>44463</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>44467</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>44474</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>44474</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <v>44475</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <v>44477</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>44480</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <v>44480</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>44480</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <v>44480</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <v>44483</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>44488</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>44489</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C40" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
+        <v>44494</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
+        <v>44495</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
+        <v>44495</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
+        <v>44495</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
+        <v>44505</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
+        <v>44509</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A48" s="5">
+        <v>44509</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="5">
+        <v>44510</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A10" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
-        <v>44521</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortCondition ref="A2:A49"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270DACA-7C39-4F55-9F2B-36A5BE1C6294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -584,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,31 +598,19 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,16 +929,16 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="67.3984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="11"/>
+    <col min="1" max="1" width="16.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="67.3984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -968,222 +956,222 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>44435</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>44440</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44445</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44449</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44449</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44461</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44467</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44467</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44468</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44468</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44491</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44491</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44494</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>44504</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44504</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44516</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44516</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44516</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44516</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>44518</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1202,19 +1190,19 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44" style="7" customWidth="1"/>
     <col min="3" max="3" width="73" style="8" customWidth="1"/>
     <col min="4" max="4" width="37.296875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="4"/>
+    <col min="5" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1229,530 +1217,530 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>44348</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>44365</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44378</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44378</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44393</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44397</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44397</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44407</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44407</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44412</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44421</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44428</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44428</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>44431</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44431</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44435</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44439</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44439</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44440</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>44440</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>44440</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>44442</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>44452</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>44454</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>44455</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>44456</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>44463</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>44467</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>44474</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>44474</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>44475</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>44477</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>44480</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>44480</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>44480</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>44480</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>44483</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>44488</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>44489</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>44494</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>44495</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>44495</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>44495</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>44505</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>44505</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>44509</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>44509</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>44510</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>46</v>
       </c>
     </row>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A687B1D-49E9-47A8-BEC8-47128F8CAC7E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3296C5-3A79-48EF-8FD3-0E19EC09A176}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="jp-go-digital-news-meeting" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -216,7 +216,12 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第1回）（令和3年11月18日開催）</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/-WRAugzZ</t>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第2回）（令和3年11月22日開催）</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/p_9fVK2m</t>
@@ -942,9 +947,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1191,6 +1196,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="22" spans="1:3" ht="27">
+      <c r="A22" s="6">
+        <v>44522</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
     <sortCondition ref="A2:A21"/>
@@ -1198,9 +1214,10 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" xr:uid="{AE1987B0-6A83-452E-8AC2-33A8CA625C0F}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{2E6534CA-3DC5-4AA7-87FC-0AEBCC33226C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1208,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15"/>
@@ -1240,10 +1257,10 @@
         <v>44348</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1251,10 +1268,10 @@
         <v>44365</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1262,10 +1279,10 @@
         <v>44378</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1273,10 +1290,10 @@
         <v>44378</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1284,10 +1301,10 @@
         <v>44393</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1295,10 +1312,10 @@
         <v>44397</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1306,10 +1323,10 @@
         <v>44397</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1317,10 +1334,10 @@
         <v>44407</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1328,10 +1345,10 @@
         <v>44407</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1339,10 +1356,10 @@
         <v>44412</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1350,10 +1367,10 @@
         <v>44421</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1361,10 +1378,10 @@
         <v>44428</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.45">
@@ -1372,10 +1389,10 @@
         <v>44428</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1383,10 +1400,10 @@
         <v>44431</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1394,10 +1411,10 @@
         <v>44431</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1405,10 +1422,10 @@
         <v>44435</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1416,10 +1433,10 @@
         <v>44439</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.45">
@@ -1427,10 +1444,10 @@
         <v>44439</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.45">
@@ -1438,10 +1455,10 @@
         <v>44440</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1449,10 +1466,10 @@
         <v>44440</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1460,10 +1477,10 @@
         <v>44440</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1471,10 +1488,10 @@
         <v>44442</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1482,10 +1499,10 @@
         <v>44452</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1493,10 +1510,10 @@
         <v>44454</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1504,10 +1521,10 @@
         <v>44455</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1515,10 +1532,10 @@
         <v>44456</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1526,10 +1543,10 @@
         <v>44463</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1537,10 +1554,10 @@
         <v>44467</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1548,10 +1565,10 @@
         <v>44474</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1559,10 +1576,10 @@
         <v>44474</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1570,10 +1587,10 @@
         <v>44475</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1581,10 +1598,10 @@
         <v>44477</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1592,10 +1609,10 @@
         <v>44480</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1603,10 +1620,10 @@
         <v>44480</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -1614,10 +1631,10 @@
         <v>44480</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1625,10 +1642,10 @@
         <v>44480</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1636,10 +1653,10 @@
         <v>44483</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.45">
@@ -1647,10 +1664,10 @@
         <v>44488</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1658,10 +1675,10 @@
         <v>44489</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1669,10 +1686,10 @@
         <v>44494</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1680,10 +1697,10 @@
         <v>44495</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1691,10 +1708,10 @@
         <v>44495</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="26.45">
@@ -1702,10 +1719,10 @@
         <v>44495</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1713,10 +1730,10 @@
         <v>44505</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.45">
@@ -1724,10 +1741,10 @@
         <v>44505</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="40.5">
@@ -1735,10 +1752,10 @@
         <v>44509</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="40.5">
@@ -1746,10 +1763,10 @@
         <v>44509</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75">
@@ -1757,10 +1774,10 @@
         <v>44510</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -1768,10 +1785,10 @@
         <v>44518</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1792,21 +1809,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2029,8 +2031,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2038,5 +2055,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3296C5-3A79-48EF-8FD3-0E19EC09A176}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6859E0AA-0F9A-4CE9-BF00-98C9210F1D9B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="jp-go-digital-news-meeting" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -224,6 +224,12 @@
     <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第2回）（令和3年11月22日開催）</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/meeting/posts/Sl200Av1</t>
+  </si>
+  <si>
+    <t>こどもに関する情報・データ連携副大臣プロジェクトチーム（第1回）（令和3年11月26日開催）</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/posts/p_9fVK2m</t>
   </si>
   <si>
@@ -508,6 +514,18 @@
   </si>
   <si>
     <t>自治体職員×政府機関職員「デジタル改革共創プラットフォーム」が始まります</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/V7GLkItd</t>
+  </si>
+  <si>
+    <t>デンマーク王国とデジタル分野における協力覚書の署名式を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/dSxBRA_c</t>
+  </si>
+  <si>
+    <t>水際対策強化に係る新たな措置（19）の電子申請（オンライン）のシステムリリース後の状況について</t>
   </si>
 </sst>
 </file>
@@ -947,9 +965,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1174,7 +1192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="13.5">
       <c r="A20" s="6">
         <v>44516</v>
       </c>
@@ -1205,6 +1223,17 @@
       </c>
       <c r="C22" s="8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27">
+      <c r="A23" s="6">
+        <v>44526</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1215,18 +1244,19 @@
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" xr:uid="{AE1987B0-6A83-452E-8AC2-33A8CA625C0F}"/>
     <hyperlink ref="B22" r:id="rId2" xr:uid="{2E6534CA-3DC5-4AA7-87FC-0AEBCC33226C}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{C4FD10EF-649D-46A1-A30B-4EA49C7BD6B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15"/>
@@ -1257,10 +1287,10 @@
         <v>44348</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1268,10 +1298,10 @@
         <v>44365</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1279,10 +1309,10 @@
         <v>44378</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1290,10 +1320,10 @@
         <v>44378</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1301,10 +1331,10 @@
         <v>44393</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1312,10 +1342,10 @@
         <v>44397</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1323,10 +1353,10 @@
         <v>44397</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1334,10 +1364,10 @@
         <v>44407</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1345,10 +1375,10 @@
         <v>44407</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1356,10 +1386,10 @@
         <v>44412</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1367,10 +1397,10 @@
         <v>44421</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1378,10 +1408,10 @@
         <v>44428</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.45">
@@ -1389,10 +1419,10 @@
         <v>44428</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1400,10 +1430,10 @@
         <v>44431</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1411,10 +1441,10 @@
         <v>44431</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1422,10 +1452,10 @@
         <v>44435</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1433,10 +1463,10 @@
         <v>44439</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.45">
@@ -1444,10 +1474,10 @@
         <v>44439</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26.45">
@@ -1455,10 +1485,10 @@
         <v>44440</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1466,10 +1496,10 @@
         <v>44440</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1477,10 +1507,10 @@
         <v>44440</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1488,10 +1518,10 @@
         <v>44442</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1499,10 +1529,10 @@
         <v>44452</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1510,10 +1540,10 @@
         <v>44454</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1521,10 +1551,10 @@
         <v>44455</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1532,10 +1562,10 @@
         <v>44456</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1543,10 +1573,10 @@
         <v>44463</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1554,10 +1584,10 @@
         <v>44467</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1565,10 +1595,10 @@
         <v>44474</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1576,10 +1606,10 @@
         <v>44474</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1587,10 +1617,10 @@
         <v>44475</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1598,10 +1628,10 @@
         <v>44477</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1609,10 +1639,10 @@
         <v>44480</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1620,10 +1650,10 @@
         <v>44480</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -1631,10 +1661,10 @@
         <v>44480</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1642,10 +1672,10 @@
         <v>44480</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1653,10 +1683,10 @@
         <v>44483</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="26.45">
@@ -1664,10 +1694,10 @@
         <v>44488</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1675,10 +1705,10 @@
         <v>44489</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1686,10 +1716,10 @@
         <v>44494</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1697,10 +1727,10 @@
         <v>44495</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1708,10 +1738,10 @@
         <v>44495</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="26.45">
@@ -1719,10 +1749,10 @@
         <v>44495</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1730,10 +1760,10 @@
         <v>44505</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.45">
@@ -1741,10 +1771,10 @@
         <v>44505</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="40.5">
@@ -1752,10 +1782,10 @@
         <v>44509</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="40.5">
@@ -1763,10 +1793,10 @@
         <v>44509</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75">
@@ -1774,10 +1804,10 @@
         <v>44510</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -1785,10 +1815,32 @@
         <v>44518</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75">
+      <c r="A51" s="6">
+        <v>44525</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="27">
+      <c r="A52" s="6">
+        <v>44526</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1802,9 +1854,11 @@
     <hyperlink ref="B48" r:id="rId3" xr:uid="{9EE36705-956C-4923-A12C-63956CA1F0CE}"/>
     <hyperlink ref="B47" r:id="rId4" xr:uid="{98497A52-25DC-4581-B531-3CCF7BA884E8}"/>
     <hyperlink ref="B36" r:id="rId5" xr:uid="{07CC3145-6456-40A6-9AC2-E5CB90776B9B}"/>
+    <hyperlink ref="B51" r:id="rId6" xr:uid="{D6E04C23-60B5-4298-AC3D-A8B1BBAA0114}"/>
+    <hyperlink ref="B52" r:id="rId7" xr:uid="{78CD97BC-297B-4374-B69E-C6B478338417}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6859E0AA-0F9A-4CE9-BF00-98C9210F1D9B}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9839EB6-53E2-4DD1-ADF0-2266D22D25F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>水際対策強化に係る新たな措置（19）の電子申請（オンライン）のシステムリリース後の状況について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/M2NB81eg</t>
+  </si>
+  <si>
+    <t>モビリティに関する情報処理システムの連携の仕組み（アーキテクチャ）を描く検討を開始します</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15"/>
@@ -1843,6 +1849,17 @@
         <v>146</v>
       </c>
     </row>
+    <row r="53" spans="1:3" ht="27">
+      <c r="A53" s="6">
+        <v>44531</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
     <sortCondition ref="A2:A49"/>
@@ -1856,13 +1873,29 @@
     <hyperlink ref="B36" r:id="rId5" xr:uid="{07CC3145-6456-40A6-9AC2-E5CB90776B9B}"/>
     <hyperlink ref="B51" r:id="rId6" xr:uid="{D6E04C23-60B5-4298-AC3D-A8B1BBAA0114}"/>
     <hyperlink ref="B52" r:id="rId7" xr:uid="{78CD97BC-297B-4374-B69E-C6B478338417}"/>
+    <hyperlink ref="B53" r:id="rId8" xr:uid="{54DF934C-2D4A-4CF4-BE6F-3B0DAD4326D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2085,23 +2118,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2109,5 +2127,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B622E28-10A1-47CD-90A1-853CDFFA0A7B}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F48BD1-A003-4116-B05F-B9B03054A17E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
     <sheet name="meeting" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,174 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
-  <si>
-    <t>第1回デジタル社会推進会議（令和3年9月6日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/zvKTxKMK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210907_meeting_conception_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/LykfW_XV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/NbtVwXoh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル社会構想会議の開催について（PDF／53KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1回デジタル社会構想会議（令和3年9月28日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第2回デジタル社会構想会議（令和3年11月4日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/icPUoaig</t>
-  </si>
-  <si>
-    <t>データ戦略ワーキンググループ（第1回）（令和3年10月25日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/9kD1WCFK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/3zmv1HyO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第1回）（プラットフォームにおけるデータ取扱いルールの実装に関する検討会（第5回））（令和3年11月16日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/o88lhOm9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EBPM推進委員会（第1回）（令和3年11月4日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211021_meeting_my_number_wg_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/bKRna084</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループの開催について（PDF／91KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第1回）（令和3年10月22日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210906_meeting_executive_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/stdbnYdh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル社会推進会議幹事会の開催について（PDF／91KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1回デジタル社会推進会議幹事会（令和3年9月10日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211109_meeting_extraordinary_administrative_research_committee_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211116_meeting_extraordinary_administrative_research_committee_03.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/54yivy_u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会の開催について（PDF／75KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会構成員（PDF／86KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会（第1回）（令和3年11月16日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/EQfDTVuA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内閣官房情報通信技術（ＩＴ）総合戦略室 コンプライアンス委員会（令和3年8月27日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル庁コンプライアンス委員会（令和3年9月29日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/HTQB-hAX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「デジタルの日」検討委員会設置のお知らせ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/AcLOjFsQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイナンバーカードの普及と健康保険証利用に関する関係府省庁会議（第5回）（令和3年9月29日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/gQ6Pun4A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地方公共団体の基幹業務等システムの統一・標準化に関する関係府省会議（令和3年9月22日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/ZYzU5DYY</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/zytWmjcS</t>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -214,6 +47,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -221,330 +62,495 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/p_9fVK2m</t>
+  </si>
+  <si>
+    <t>マイナポータルのデザインをリニューアル。児童手当現況届申請画面などが使いやすくなりました。</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ZlptjPro</t>
+  </si>
+  <si>
+    <t>「デジタル社会の実現に向けた重点計画」を閣議決定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/IKArEhyI</t>
+  </si>
+  <si>
+    <t>（受付終了）GIGAスクール構想について、教育に携わる皆様へアンケートのお願い</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/APzucCWQ</t>
+  </si>
+  <si>
+    <t>（受付終了）タブレットについて、小中高校生へアンケートのおねがい&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/qPLubLrj</t>
+  </si>
+  <si>
+    <t>令和3年度「こども霞が関見学デー」を開催しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/A8kKSe7F</t>
+  </si>
+  <si>
+    <t>マイナンバーカード紹介動画を公開しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/PKaVLvnv</t>
+  </si>
+  <si>
+    <t>（受付終了）GIGAスクール構想についてのアンケートを分析する事業者を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/eNt9UVNC</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービス（自治体手続） サービス検証等の参加自治体が決まりました&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/UsZ6cDXd</t>
+  </si>
+  <si>
+    <t>ISMAPクラウドサービスリストを公開しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ThKAblNn</t>
+  </si>
+  <si>
+    <t>GIGAスクール構想についてのアンケートの分析事業者を決定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/1sZr0zP0</t>
+  </si>
+  <si>
+    <t>政府統一Webサイトに関する調達の入札説明会を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/2ZYjJ7wg</t>
+  </si>
+  <si>
+    <t>デジタル庁発足に向けたコンプライアンス体制の確保について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/CM4Regng</t>
+  </si>
+  <si>
+    <t>「国民との共創による政策実現のためのコミュニティプラットフォーム実証事業」への参加事業者を募集します！&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/KVRUL5Ih</t>
+  </si>
+  <si>
+    <t>2021年デジタル社会推進賞の募集を開始します！</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/RigpA13o</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービスの普及促進に向けた意見交換会への参加事業者が決まりました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/Bca6lKg9</t>
+  </si>
+  <si>
+    <t>コンプライアンス委員会の設置について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/TVSe2aRq</t>
+  </si>
+  <si>
+    <t>令和4年度予算概算要求・機構定員要求をとりまとめました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/7DD9AL91</t>
+  </si>
+  <si>
+    <t>「デジタル改革共創プラットフォーム（正式版）」のリニューアル予告-リニューアルに伴う正式版の一時サービス休止について-</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/cqcCJziK</t>
+  </si>
+  <si>
+    <t>デジタル庁の設置に伴う各種規則及び告示の制定並びに整備にかかる意見募集の結果が公表されました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/uWAA9Dcp</t>
+  </si>
+  <si>
+    <t>デジタル庁発足式を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/kMccIpBR</t>
+  </si>
+  <si>
+    <t>幹部等人事が決定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/NL3lOB9E</t>
+  </si>
+  <si>
+    <t>GIGAスクール構想についてのアンケートの取りまとめ結果を公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/l9uhy2HU</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/yS0M_VaX</t>
+  </si>
+  <si>
+    <t>デジタル・ガバメント推進標準ガイドラインを改定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/Bx1xWQBi</t>
+  </si>
+  <si>
+    <t>「2021年デジタルの日」に向けて、カウントダウン応援動画・楽曲が初解禁！</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ckWVVAya</t>
+  </si>
+  <si>
+    <t>（受付終了）コロナワクチンの接種証明書（電子交付）の仕様に関するご意見を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/8pxOQG2O</t>
+  </si>
+  <si>
+    <t>懲戒処分の公表について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/J3M3x7at</t>
+  </si>
+  <si>
+    <t>地方自治体からデジタル庁職員を公募します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/b-SItqGk</t>
+  </si>
+  <si>
+    <t>10月10日（日）開催！「2021年デジタルの日」オンラインイベント詳細を発表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/4vlrFBy3</t>
+  </si>
+  <si>
+    <t>新しいデジタル庁アイデアボックスが始まります</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/3XCS8cg4</t>
+  </si>
+  <si>
+    <t>デジタル大臣退任式・就任式を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/OHfXf0Gp</t>
+  </si>
+  <si>
+    <t>民間事業者に対して公的個人認証サービスの利用に関する主務大臣認定を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/g7b3GZuP</t>
+  </si>
+  <si>
+    <t>「2021年デジタルの日」オンラインイベントを開催しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/KZ2w62RH</t>
+  </si>
+  <si>
+    <t>マイナンバーカードの健康保険証利用のデモイベントを実施しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/6E_MCWFZ</t>
+  </si>
+  <si>
+    <t>「デジ道（仮）」文書制作のコンセプトを公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/CFVm4laO</t>
+  </si>
+  <si>
+    <t>企業間の契約・決済について、全体像（見取り図）の設計に向けた検討を開始します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/6RFwVpXp</t>
+  </si>
+  <si>
+    <t>オープンデータ取組済自治体を更新しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/LbGO0j4g</t>
+  </si>
+  <si>
+    <t>「コロナワクチンの接種証明書（電子交付）の仕様に関するご意見」の取りまとめ結果を公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/lCQU-uoB</t>
+  </si>
+  <si>
+    <t>マイナンバーカードの健康保険証利用の本格運用がスタートしました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/tGZmsuPh</t>
+  </si>
+  <si>
+    <t>教育データ利活用についてのご意見を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/7bIjgz40</t>
+  </si>
+  <si>
+    <t>（受付終了）データ戦略へのご意見をお寄せください</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ZYzU5DYY</t>
+  </si>
+  <si>
+    <t>ガバメントクラウド先行事業（市町村の基幹業務システム等）の採択結果を公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/zytWmjcS</t>
+  </si>
+  <si>
+    <t>デジタル庁におけるガバメント・クラウド整備のためのクラウドサービスの提供－令和3年度地方公共団体による先行事業及びデジタル庁WEBサイト構築業務－の公募結果について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/fP9l2KD4</t>
+  </si>
+  <si>
+    <t>（受付終了）新重点計画の策定に向けてご意見を募集します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/ZiAUlNJC</t>
+  </si>
+  <si>
+    <t>公的給付の支給等の迅速かつ確実な実施のための預貯金口座の登録等に関する法律施行規則案に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/_gctmaGw</t>
+  </si>
+  <si>
+    <t>電気通信回線を通じた送信又は電磁的記録媒体の送付の方法及び情報提供ネットワークシステムを使用した送信の方法に関する技術的基準の一部改正に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/xpBE170a</t>
+  </si>
+  <si>
+    <t>行政手続における特定の個人を識別するための番号の利用等に関する法律に規定する個人番号、個人番号カード、特定個人情報の提供等に関する省令の一部改正に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/4PB81KNy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>自治体職員×政府機関職員「デジタル改革共創プラットフォーム」が始まります</t>
   </si>
   <si>
-    <t>https://www.digital.go.jp/posts/_gctmaGw</t>
-  </si>
-  <si>
-    <t>電気通信回線を通じた送信又は電磁的記録媒体の送付の方法及び情報提供ネットワークシステムを使用した送信の方法に関する技術的基準の一部改正に係る意見募集を行います</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/xpBE170a</t>
-  </si>
-  <si>
-    <t>行政手続における特定の個人を識別するための番号の利用等に関する法律に規定する個人番号、個人番号カード、特定個人情報の提供等に関する省令の一部改正に係る意見募集を行います</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/fP9l2KD4</t>
-  </si>
-  <si>
-    <t>（受付終了）新重点計画の策定に向けてご意見を募集します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/ZiAUlNJC</t>
-  </si>
-  <si>
-    <t>公的給付の支給等の迅速かつ確実な実施のための預貯金口座の登録等に関する法律施行規則案に係る意見募集を行います</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/7bIjgz40</t>
-  </si>
-  <si>
-    <t>（受付終了）データ戦略へのご意見をお寄せください</t>
-  </si>
-  <si>
-    <t>ガバメントクラウド先行事業（市町村の基幹業務システム等）の採択結果を公表しました</t>
-  </si>
-  <si>
-    <t>デジタル庁におけるガバメント・クラウド整備のためのクラウドサービスの提供－令和3年度地方公共団体による先行事業及びデジタル庁WEBサイト構築業務－の公募結果について</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/tGZmsuPh</t>
-  </si>
-  <si>
-    <t>教育データ利活用についてのご意見を募集します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/lCQU-uoB</t>
-  </si>
-  <si>
-    <t>マイナンバーカードの健康保険証利用の本格運用がスタートしました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/LbGO0j4g</t>
-  </si>
-  <si>
-    <t>「コロナワクチンの接種証明書（電子交付）の仕様に関するご意見」の取りまとめ結果を公表しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/6RFwVpXp</t>
-  </si>
-  <si>
-    <t>オープンデータ取組済自治体を更新しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/g7b3GZuP</t>
-  </si>
-  <si>
-    <t>「2021年デジタルの日」オンラインイベントを開催しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/KZ2w62RH</t>
-  </si>
-  <si>
-    <t>マイナンバーカードの健康保険証利用のデモイベントを実施しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/6E_MCWFZ</t>
-  </si>
-  <si>
-    <t>「デジ道（仮）」文書制作のコンセプトを公表しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/CFVm4laO</t>
-  </si>
-  <si>
-    <t>企業間の契約・決済について、全体像（見取り図）の設計に向けた検討を開始します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/OHfXf0Gp</t>
-  </si>
-  <si>
-    <t>民間事業者に対して公的個人認証サービスの利用に関する主務大臣認定を行いました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/3XCS8cg4</t>
-  </si>
-  <si>
-    <t>デジタル大臣退任式・就任式を行いました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/b-SItqGk</t>
-  </si>
-  <si>
-    <t>10月10日（日）開催！「2021年デジタルの日」オンラインイベント詳細を発表しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/4vlrFBy3</t>
-  </si>
-  <si>
-    <t>新しいデジタル庁アイデアボックスが始まります</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/J3M3x7at</t>
-  </si>
-  <si>
-    <t>地方自治体からデジタル庁職員を公募します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/8pxOQG2O</t>
-  </si>
-  <si>
-    <t>懲戒処分の公表について</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/ckWVVAya</t>
-  </si>
-  <si>
-    <t>（受付終了）コロナワクチンの接種証明書（電子交付）の仕様に関するご意見を募集します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/Bx1xWQBi</t>
-  </si>
-  <si>
-    <t>「2021年デジタルの日」に向けて、カウントダウン応援動画・楽曲が初解禁！</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/yS0M_VaX</t>
-  </si>
-  <si>
-    <t>デジタル・ガバメント推進標準ガイドラインを改定しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/l9uhy2HU</t>
-  </si>
-  <si>
-    <t>ISMAPクラウドサービスリストを公開しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/NL3lOB9E</t>
-  </si>
-  <si>
-    <t>GIGAスクール構想についてのアンケートの取りまとめ結果を公表しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/cqcCJziK</t>
-  </si>
-  <si>
-    <t>デジタル庁の設置に伴う各種規則及び告示の制定並びに整備にかかる意見募集の結果が公表されました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/uWAA9Dcp</t>
-  </si>
-  <si>
-    <t>デジタル庁発足式を行いました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/kMccIpBR</t>
-  </si>
-  <si>
-    <t>幹部等人事が決定しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/TVSe2aRq</t>
-  </si>
-  <si>
-    <t>令和4年度予算概算要求・機構定員要求をとりまとめました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/7DD9AL91</t>
-  </si>
-  <si>
-    <t>「デジタル改革共創プラットフォーム（正式版）」のリニューアル予告-リニューアルに伴う正式版の一時サービス休止について-</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/Bca6lKg9</t>
-  </si>
-  <si>
-    <t>コンプライアンス委員会の設置について</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/KVRUL5Ih</t>
-  </si>
-  <si>
-    <t>2021年デジタル社会推進賞の募集を開始します！</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/RigpA13o</t>
-  </si>
-  <si>
-    <t>引越しワンストップサービスの普及促進に向けた意見交換会への参加事業者が決まりました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/2ZYjJ7wg</t>
-  </si>
-  <si>
-    <t>デジタル庁発足に向けたコンプライアンス体制の確保について</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/CM4Regng</t>
-  </si>
-  <si>
-    <t>「国民との共創による政策実現のためのコミュニティプラットフォーム実証事業」への参加事業者を募集します！&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/1sZr0zP0</t>
-  </si>
-  <si>
-    <t>政府統一Webサイトに関する調達の入札説明会を行いました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/ThKAblNn</t>
-  </si>
-  <si>
-    <t>GIGAスクール構想についてのアンケートの分析事業者を決定しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/eNt9UVNC</t>
-  </si>
-  <si>
-    <t>引越しワンストップサービス（自治体手続） サービス検証等の参加自治体が決まりました&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/UsZ6cDXd</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/A8kKSe7F</t>
-  </si>
-  <si>
-    <t>マイナンバーカード紹介動画を公開しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/PKaVLvnv</t>
-  </si>
-  <si>
-    <t>（受付終了）GIGAスクール構想についてのアンケートを分析する事業者を募集します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/qPLubLrj</t>
-  </si>
-  <si>
-    <t>令和3年度「こども霞が関見学デー」を開催しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/IKArEhyI</t>
-  </si>
-  <si>
-    <t>（受付終了）GIGAスクール構想について、教育に携わる皆様へアンケートのお願い</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/APzucCWQ</t>
-  </si>
-  <si>
-    <t>（受付終了）タブレットについて、小中高校生へアンケートのおねがい&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/ZlptjPro</t>
-  </si>
-  <si>
-    <t>「デジタル社会の実現に向けた重点計画」を閣議決定しました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/p_9fVK2m</t>
-  </si>
-  <si>
-    <t>マイナポータルのデザインをリニューアル。児童手当現況届申請画面などが使いやすくなりました。</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/4PB81KNy</t>
+    <t>https://www.digital.go.jp/posts/V7GLkItd</t>
+  </si>
+  <si>
+    <t>デンマーク王国とデジタル分野における協力覚書の署名式を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/dSxBRA_c</t>
+  </si>
+  <si>
+    <t>水際対策強化に係る新たな措置（19）の電子申請（オンライン）のシステムリリース後の状況について</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/M2NB81eg</t>
+  </si>
+  <si>
+    <t>モビリティに関する情報処理システムの連携の仕組み（アーキテクチャ）を描く検討を開始します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/5UyF41v6</t>
+  </si>
+  <si>
+    <t>データ戦略へのご意見をお寄せください（第2回）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/Ln4EAoqE</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内閣官房情報通信技術（ＩＴ）総合戦略室 コンプライアンス委員会（令和3年8月27日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/HTQB-hAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「デジタルの日」検討委員会設置のお知らせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/zvKTxKMK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1回デジタル社会推進会議（令和3年9月6日開催）</t>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210906_meeting_executive_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル社会推進会議幹事会の開催について（PDF／91KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/stdbnYdh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1回デジタル社会推進会議幹事会（令和3年9月10日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/gQ6Pun4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地方公共団体の基幹業務等システムの統一・標準化に関する関係府省会議（令和3年9月22日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210907_meeting_conception_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル社会構想会議の開催について（PDF／53KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/LykfW_XV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1回デジタル社会構想会議（令和3年9月28日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/EQfDTVuA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル庁コンプライアンス委員会（令和3年9月29日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/AcLOjFsQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバーカードの普及と健康保険証利用に関する関係府省庁会議（第5回）（令和3年9月29日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211021_meeting_my_number_wg_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループの開催について（PDF／91KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/bKRna084</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第1回）（令和3年10月22日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/icPUoaig</t>
+  </si>
+  <si>
+    <t>データ戦略ワーキンググループ（第1回）（令和3年10月25日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/NbtVwXoh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2回デジタル社会構想会議（令和3年11月4日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/o88lhOm9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBPM推進委員会（第1回）（令和3年11月4日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/3zmv1HyO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第1回）（プラットフォームにおけるデータ取扱いルールの実装に関する検討会（第5回））（令和3年11月16日開催）</t>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211109_meeting_extraordinary_administrative_research_committee_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会の開催について（PDF／75KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211116_meeting_extraordinary_administrative_research_committee_03.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会構成員（PDF／86KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/54yivy_u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会（第1回）（令和3年11月16日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/9kD1WCFK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第1回）（令和3年11月18日開催）</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/meeting/posts/-WRAugzZ</t>
+  </si>
+  <si>
     <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第2回）（令和3年11月22日開催）</t>
   </si>
   <si>
-    <t>https://www.digital.go.jp/meeting/posts/-WRAugzZ</t>
-  </si>
-  <si>
-    <t>デンマーク王国とデジタル分野における協力覚書の署名式を行いました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/V7GLkItd</t>
-  </si>
-  <si>
     <t>https://www.digital.go.jp/meeting/posts/Sl200Av1</t>
   </si>
   <si>
     <t>こどもに関する情報・データ連携副大臣プロジェクトチーム（第1回）（令和3年11月26日開催）</t>
-  </si>
-  <si>
-    <t>水際対策強化に係る新たな措置（19）の電子申請（オンライン）のシステムリリース後の状況について</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/dSxBRA_c</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/M2NB81eg</t>
-  </si>
-  <si>
-    <t>モビリティに関する情報処理システムの連携の仕組み（アーキテクチャ）を描く検討を開始します</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/5UyF41v6</t>
-  </si>
-  <si>
-    <t>データ戦略へのご意見をお寄せください（第2回）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,15 +635,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,8 +683,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -693,7 +706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -989,13 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="44" style="7" customWidth="1"/>
@@ -1004,590 +1017,612 @@
     <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="6">
         <v>44348</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>44365</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>44378</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>44378</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>44393</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>44397</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>44397</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="6">
         <v>44407</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>44407</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>44412</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>44421</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>44428</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="6">
         <v>44428</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>44431</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>44431</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>44435</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>44439</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27">
       <c r="A19" s="6">
         <v>44439</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27">
       <c r="A20" s="6">
         <v>44440</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>44440</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>44440</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>44442</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="6">
         <v>44452</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>44454</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="6">
         <v>44455</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="6">
         <v>44456</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="6">
         <v>44463</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="6">
         <v>44467</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>44474</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="6">
         <v>44474</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>44475</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="6">
         <v>44477</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
         <v>44480</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
         <v>44480</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75">
       <c r="A36" s="6">
         <v>44480</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
         <v>44480</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
         <v>44483</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="27">
       <c r="A39" s="6">
         <v>44488</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>44489</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
         <v>44494</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
         <v>44495</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
         <v>44495</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="27">
       <c r="A44" s="6">
         <v>44495</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <v>44505</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27">
       <c r="A46" s="6">
         <v>44505</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="27">
       <c r="A47" s="6">
         <v>44509</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="40.5">
       <c r="A48" s="6">
         <v>44509</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75">
       <c r="A49" s="6">
         <v>44510</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75">
       <c r="A50" s="6">
         <v>44518</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75">
       <c r="A51" s="6">
         <v>44525</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="27">
       <c r="A52" s="6">
         <v>44526</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="27">
       <c r="A53" s="6">
         <v>44531</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>148</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75">
+      <c r="A54" s="6">
+        <v>44533</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="27">
+      <c r="A55" s="6">
+        <v>44537</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1604,9 +1639,11 @@
     <hyperlink ref="B51" r:id="rId6" xr:uid="{D6E04C23-60B5-4298-AC3D-A8B1BBAA0114}"/>
     <hyperlink ref="B52" r:id="rId7" xr:uid="{78CD97BC-297B-4374-B69E-C6B478338417}"/>
     <hyperlink ref="B53" r:id="rId8" xr:uid="{54DF934C-2D4A-4CF4-BE6F-3B0DAD4326D7}"/>
+    <hyperlink ref="B54" r:id="rId9" xr:uid="{9428B1C5-C77E-4118-8A5D-003BA9E3CA7F}"/>
+    <hyperlink ref="B55" r:id="rId10" xr:uid="{8A178FAD-97A0-46FA-AA5C-91AB1ABA5A4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1614,11 +1651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="7" customWidth="1"/>
@@ -1627,272 +1664,264 @@
     <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="6">
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="6">
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="6">
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="6">
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="6">
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.5">
       <c r="A17" s="6">
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" s="6">
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27">
       <c r="A22" s="6">
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27">
       <c r="A23" s="6">
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
-        <v>44533</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
+      <c r="B24" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
@@ -1903,10 +1932,9 @@
     <hyperlink ref="B21" r:id="rId1" xr:uid="{AE1987B0-6A83-452E-8AC2-33A8CA625C0F}"/>
     <hyperlink ref="B22" r:id="rId2" xr:uid="{2E6534CA-3DC5-4AA7-87FC-0AEBCC33226C}"/>
     <hyperlink ref="B23" r:id="rId3" xr:uid="{C4FD10EF-649D-46A1-A30B-4EA49C7BD6B2}"/>
-    <hyperlink ref="B24" r:id="rId4" xr:uid="{231917AD-0A28-4F1E-9432-2DFA173AE592}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2134,6 +2162,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2142,52 +2176,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
-    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F48BD1-A003-4116-B05F-B9B03054A17E}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8D2BBE-21EE-4F79-926D-07B73E9F1A6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -544,6 +544,18 @@
   </si>
   <si>
     <t>こどもに関する情報・データ連携副大臣プロジェクトチーム（第1回）（令和3年11月26日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/2H5fQKcg</t>
+  </si>
+  <si>
+    <t>第3回デジタル社会構想会議（令和3年12月8日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/fkyjZNZY</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第2回）（令和3年12月13日開催）</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1649,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1920,8 +1932,27 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75">
-      <c r="B24" s="12"/>
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="A24" s="6">
+        <v>44538</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27">
+      <c r="A25" s="6">
+        <v>44543</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
@@ -1932,9 +1963,11 @@
     <hyperlink ref="B21" r:id="rId1" xr:uid="{AE1987B0-6A83-452E-8AC2-33A8CA625C0F}"/>
     <hyperlink ref="B22" r:id="rId2" xr:uid="{2E6534CA-3DC5-4AA7-87FC-0AEBCC33226C}"/>
     <hyperlink ref="B23" r:id="rId3" xr:uid="{C4FD10EF-649D-46A1-A30B-4EA49C7BD6B2}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{2C12D859-523B-4DFB-8D15-E750F92979D0}"/>
+    <hyperlink ref="B25" r:id="rId5" xr:uid="{9B63A924-077D-4B6D-B726-2A13E532D336}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8D2BBE-21EE-4F79-926D-07B73E9F1A6D}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75D4E5D-D72A-4A1A-9F1A-9964DCECD215}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第2回）（令和3年12月13日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/SnUNooHr</t>
+  </si>
+  <si>
+    <t>デジタル庁コンプライアンス委員会（令和3年12月17日開催）</t>
   </si>
 </sst>
 </file>
@@ -1661,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1954,6 +1960,17 @@
         <v>156</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="18.75">
+      <c r="A26" s="6">
+        <v>44547</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
     <sortCondition ref="A2:A21"/>
@@ -1965,13 +1982,29 @@
     <hyperlink ref="B23" r:id="rId3" xr:uid="{C4FD10EF-649D-46A1-A30B-4EA49C7BD6B2}"/>
     <hyperlink ref="B24" r:id="rId4" xr:uid="{2C12D859-523B-4DFB-8D15-E750F92979D0}"/>
     <hyperlink ref="B25" r:id="rId5" xr:uid="{9B63A924-077D-4B6D-B726-2A13E532D336}"/>
+    <hyperlink ref="B26" r:id="rId6" xr:uid="{AA73F78E-03C5-4938-A886-FA2B4FC4C269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2194,23 +2227,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2218,5 +2236,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75D4E5D-D72A-4A1A-9F1A-9964DCECD215}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B988D5-4792-4AD8-9BA7-C6FADB2F6169}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/RqtKDNhJ</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/caIzQeFN</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1020,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1641,6 +1647,28 @@
       </c>
       <c r="C55" s="8" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75">
+      <c r="A56" s="6">
+        <v>44550</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="27">
+      <c r="A57" s="6">
+        <v>44550</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1659,9 +1687,11 @@
     <hyperlink ref="B53" r:id="rId8" xr:uid="{54DF934C-2D4A-4CF4-BE6F-3B0DAD4326D7}"/>
     <hyperlink ref="B54" r:id="rId9" xr:uid="{9428B1C5-C77E-4118-8A5D-003BA9E3CA7F}"/>
     <hyperlink ref="B55" r:id="rId10" xr:uid="{8A178FAD-97A0-46FA-AA5C-91AB1ABA5A4A}"/>
+    <hyperlink ref="B56" r:id="rId11" xr:uid="{AEB6C579-9900-431A-9B5B-37797A2FE5AC}"/>
+    <hyperlink ref="B57" r:id="rId12" xr:uid="{F5634321-7BB4-45AE-87B1-58941580C939}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1669,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B23" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1701,10 +1731,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1712,10 +1742,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1723,10 +1753,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1734,10 +1764,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1745,10 +1775,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1756,10 +1786,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1767,10 +1797,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1778,10 +1808,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1789,10 +1819,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -1800,10 +1830,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -1811,10 +1841,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -1822,10 +1852,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1833,10 +1863,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1844,10 +1874,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1855,10 +1885,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -1866,10 +1896,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1877,10 +1907,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1888,10 +1918,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1899,10 +1929,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -1910,10 +1940,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -1921,10 +1951,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -1932,10 +1962,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -1943,10 +1973,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27">
@@ -1954,10 +1984,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -1965,10 +1995,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1990,21 +2020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2227,8 +2242,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2236,5 +2266,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B988D5-4792-4AD8-9BA7-C6FADB2F6169}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF0A57D-DEE4-48BF-A64E-3C961115A8F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -389,7 +389,6 @@
   </si>
   <si>
     <t>内閣官房情報通信技術（ＩＴ）総合戦略室 コンプライアンス委員会（令和3年8月27日開催）</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/HTQB-hAX</t>
@@ -568,6 +567,12 @@
   </si>
   <si>
     <t>デジタル庁コンプライアンス委員会（令和3年12月17日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/91qdfD4B</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会（第2回）（令和3年12月22日開催）</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -1697,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2001,6 +2006,17 @@
         <v>160</v>
       </c>
     </row>
+    <row r="27" spans="1:3" ht="18.75">
+      <c r="A27" s="6">
+        <v>44552</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
     <sortCondition ref="A2:A21"/>
@@ -2013,13 +2029,29 @@
     <hyperlink ref="B24" r:id="rId4" xr:uid="{2C12D859-523B-4DFB-8D15-E750F92979D0}"/>
     <hyperlink ref="B25" r:id="rId5" xr:uid="{9B63A924-077D-4B6D-B726-2A13E532D336}"/>
     <hyperlink ref="B26" r:id="rId6" xr:uid="{AA73F78E-03C5-4938-A886-FA2B4FC4C269}"/>
+    <hyperlink ref="B27" r:id="rId7" xr:uid="{E5B50F86-63AE-4898-90FC-9C71E7D0799E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2242,23 +2274,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2266,5 +2283,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF0A57D-DEE4-48BF-A64E-3C961115A8F1}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69EA0DE0-04E2-4D26-8119-4BC8BDA91A7A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -384,6 +384,18 @@
     <t>https://www.digital.go.jp/posts/caIzQeFN</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/d9Lvz21Y</t>
+  </si>
+  <si>
+    <t>公的給付の支給等の迅速かつ確実な実施のための預貯金口座の登録等に関する法律施行規則の意見公募の結果が公表されました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/79b7ZMv1</t>
+  </si>
+  <si>
+    <t>「デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,6 +585,12 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会（第2回）（令和3年12月22日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/sccTvFQ1</t>
+  </si>
+  <si>
+    <t>第2回デジタル社会推進会議（令和3年12月24日開催）</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1674,6 +1692,28 @@
       </c>
       <c r="C57" s="8" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="27">
+      <c r="A58" s="6">
+        <v>44554</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75">
+      <c r="A59" s="6">
+        <v>44554</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1694,18 +1734,20 @@
     <hyperlink ref="B55" r:id="rId10" xr:uid="{8A178FAD-97A0-46FA-AA5C-91AB1ABA5A4A}"/>
     <hyperlink ref="B56" r:id="rId11" xr:uid="{AEB6C579-9900-431A-9B5B-37797A2FE5AC}"/>
     <hyperlink ref="B57" r:id="rId12" xr:uid="{F5634321-7BB4-45AE-87B1-58941580C939}"/>
+    <hyperlink ref="B58" r:id="rId13" xr:uid="{DE679928-37EC-45AA-BB98-6787DA10A0DB}"/>
+    <hyperlink ref="B59" r:id="rId14" xr:uid="{83819C68-DBEF-464A-B777-B454FE5ACF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1736,10 +1778,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1747,10 +1789,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1758,10 +1800,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1769,10 +1811,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1780,10 +1822,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1791,10 +1833,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1802,10 +1844,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1813,10 +1855,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1824,10 +1866,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -1835,10 +1877,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -1846,10 +1888,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -1857,10 +1899,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1868,10 +1910,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1879,10 +1921,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1890,10 +1932,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -1901,10 +1943,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1912,10 +1954,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1923,10 +1965,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1934,10 +1976,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -1945,10 +1987,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -1956,10 +1998,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -1967,10 +2009,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -1978,10 +2020,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27">
@@ -1989,10 +2031,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2000,10 +2042,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2011,10 +2053,21 @@
         <v>44552</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75">
+      <c r="A28" s="6">
+        <v>44554</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2083,14 @@
     <hyperlink ref="B25" r:id="rId5" xr:uid="{9B63A924-077D-4B6D-B726-2A13E532D336}"/>
     <hyperlink ref="B26" r:id="rId6" xr:uid="{AA73F78E-03C5-4938-A886-FA2B4FC4C269}"/>
     <hyperlink ref="B27" r:id="rId7" xr:uid="{E5B50F86-63AE-4898-90FC-9C71E7D0799E}"/>
+    <hyperlink ref="B28" r:id="rId8" xr:uid="{3047DE42-D6E9-427A-B25C-FCECA8B348BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2274,14 +2313,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\jp-go-digital-news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69EA0DE0-04E2-4D26-8119-4BC8BDA91A7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903BFA6F-5488-444D-A990-AB3101A51674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -393,7 +393,16 @@
     <t>https://www.digital.go.jp/posts/79b7ZMv1</t>
   </si>
   <si>
-    <t>「デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
+    <t>デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/iHtJvnVy</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/pui4jA1O</t>
+  </si>
+  <si>
+    <t>電気通信回線を通じた送信又は電磁的記録媒体の送付の方法及び情報提供ネットワークシステムを使用した送信の方法に関する技術的基準の一部を改正する告示の意見公募の結果が公表されました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -591,13 +600,26 @@
   </si>
   <si>
     <t>第2回デジタル社会推進会議（令和3年12月24日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/tXNuQc45</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第3回）</t>
+  </si>
+  <si>
+    <t>行政手続における特定の個人を識別するための番号の利用等に関する法律に規定する個人番号、個人番号カード、特定個人情報の提供等に関する省令の一部を改正する命令の意見公募の結果が公表されました</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,7 +775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,22 +1071,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="44" style="7" customWidth="1"/>
     <col min="3" max="3" width="73" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="5"/>
+    <col min="4" max="4" width="37.19921875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>44348</v>
       </c>
@@ -1089,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>44365</v>
       </c>
@@ -1100,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>44378</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>44378</v>
       </c>
@@ -1122,7 +1144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>44393</v>
       </c>
@@ -1133,7 +1155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>44397</v>
       </c>
@@ -1144,7 +1166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>44397</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>44407</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>44407</v>
       </c>
@@ -1177,7 +1199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>44412</v>
       </c>
@@ -1188,7 +1210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>44421</v>
       </c>
@@ -1199,7 +1221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>44428</v>
       </c>
@@ -1210,7 +1232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>44428</v>
       </c>
@@ -1221,7 +1243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>44431</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>44431</v>
       </c>
@@ -1243,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>44435</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>44439</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27">
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>44439</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27">
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>44440</v>
       </c>
@@ -1287,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>44440</v>
       </c>
@@ -1298,7 +1320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>44440</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>44442</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>44452</v>
       </c>
@@ -1331,7 +1353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>44454</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>44455</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>44456</v>
       </c>
@@ -1364,7 +1386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>44463</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>44467</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>44474</v>
       </c>
@@ -1397,7 +1419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>44474</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>44475</v>
       </c>
@@ -1419,7 +1441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>44477</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>44480</v>
       </c>
@@ -1441,7 +1463,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>44480</v>
       </c>
@@ -1452,7 +1474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>44480</v>
       </c>
@@ -1463,7 +1485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>44480</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>44483</v>
       </c>
@@ -1485,7 +1507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="27">
+    <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>44488</v>
       </c>
@@ -1496,7 +1518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>44489</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>44494</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>44495</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>44495</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="27">
+    <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>44495</v>
       </c>
@@ -1551,7 +1573,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>44505</v>
       </c>
@@ -1562,7 +1584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="27">
+    <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>44505</v>
       </c>
@@ -1573,7 +1595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="27">
+    <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>44509</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40.5">
+    <row r="48" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>44509</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75">
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>44510</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>44518</v>
       </c>
@@ -1617,7 +1639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75">
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>44525</v>
       </c>
@@ -1628,7 +1650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="27">
+    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>44526</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>44531</v>
       </c>
@@ -1650,7 +1672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75">
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>44533</v>
       </c>
@@ -1661,7 +1683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="27">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>44537</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75">
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>44550</v>
       </c>
@@ -1683,7 +1705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="27">
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>44550</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="27">
+    <row r="58" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>44554</v>
       </c>
@@ -1705,7 +1727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75">
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>44554</v>
       </c>
@@ -1714,6 +1736,28 @@
       </c>
       <c r="C59" s="8" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>44557</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>44557</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1736,30 +1780,32 @@
     <hyperlink ref="B57" r:id="rId12" xr:uid="{F5634321-7BB4-45AE-87B1-58941580C939}"/>
     <hyperlink ref="B58" r:id="rId13" xr:uid="{DE679928-37EC-45AA-BB98-6787DA10A0DB}"/>
     <hyperlink ref="B59" r:id="rId14" xr:uid="{83819C68-DBEF-464A-B777-B454FE5ACF28}"/>
+    <hyperlink ref="B60" r:id="rId15" xr:uid="{8BE90A31-EECA-45FA-8DC0-5EF0E6589D2F}"/>
+    <hyperlink ref="B61" r:id="rId16" xr:uid="{0FFACF3C-92D3-4F57-9E63-ADFAD0F597A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="67.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="5"/>
+    <col min="1" max="1" width="16.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="67.3984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,301 +1819,312 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="40.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="27">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="27">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>44538</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="27">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>44543</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>44547</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>44552</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>44554</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>44557</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2084,13 +2141,29 @@
     <hyperlink ref="B26" r:id="rId6" xr:uid="{AA73F78E-03C5-4938-A886-FA2B4FC4C269}"/>
     <hyperlink ref="B27" r:id="rId7" xr:uid="{E5B50F86-63AE-4898-90FC-9C71E7D0799E}"/>
     <hyperlink ref="B28" r:id="rId8" xr:uid="{3047DE42-D6E9-427A-B25C-FCECA8B348BD}"/>
+    <hyperlink ref="B29" r:id="rId9" xr:uid="{72ADA22D-7EBE-465B-AAD2-0C50C3366707}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2313,29 +2386,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
+    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\jp-go-digital-news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903BFA6F-5488-444D-A990-AB3101A51674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231BAA0A-97DD-4D93-9406-8712A2CF4195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>https://www.digital.go.jp/posts/79b7ZMv1</t>
   </si>
   <si>
-    <t>デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
-  </si>
-  <si>
     <t>https://www.digital.go.jp/posts/iHtJvnVy</t>
   </si>
   <si>
@@ -612,6 +609,10 @@
     <rPh sb="0" eb="2">
       <t>ギョウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1074,7 +1075,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1735,7 +1736,7 @@
         <v>113</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
@@ -1743,10 +1744,10 @@
         <v>44557</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
@@ -1754,10 +1755,10 @@
         <v>44557</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +1825,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1835,10 +1836,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1846,10 +1847,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1857,10 +1858,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1868,10 +1869,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
@@ -1879,10 +1880,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1890,10 +1891,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1901,10 +1902,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1912,10 +1913,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
@@ -1923,10 +1924,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
@@ -1934,10 +1935,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
@@ -1945,10 +1946,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1956,10 +1957,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1967,10 +1968,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1978,10 +1979,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
@@ -1989,10 +1990,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -2000,10 +2001,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -2011,10 +2012,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -2022,10 +2023,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2033,10 +2034,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
@@ -2044,10 +2045,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
@@ -2055,10 +2056,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2066,10 +2067,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2077,10 +2078,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2088,10 +2089,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2099,10 +2100,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2110,10 +2111,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2121,10 +2122,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2149,18 +2150,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2387,18 +2388,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\jp-go-digital-news\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231BAA0A-97DD-4D93-9406-8712A2CF4195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0834C5B0-A6BB-4DEF-950C-011258553735}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -393,216 +393,10 @@
     <t>https://www.digital.go.jp/posts/79b7ZMv1</t>
   </si>
   <si>
+    <t>「デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/posts/iHtJvnVy</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/pui4jA1O</t>
-  </si>
-  <si>
-    <t>電気通信回線を通じた送信又は電磁的記録媒体の送付の方法及び情報提供ネットワークシステムを使用した送信の方法に関する技術的基準の一部を改正する告示の意見公募の結果が公表されました</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内閣官房情報通信技術（ＩＴ）総合戦略室 コンプライアンス委員会（令和3年8月27日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/posts/HTQB-hAX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「デジタルの日」検討委員会設置のお知らせ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/zvKTxKMK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1回デジタル社会推進会議（令和3年9月6日開催）</t>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210906_meeting_executive_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル社会推進会議幹事会の開催について（PDF／91KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/stdbnYdh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1回デジタル社会推進会議幹事会（令和3年9月10日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/gQ6Pun4A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地方公共団体の基幹業務等システムの統一・標準化に関する関係府省会議（令和3年9月22日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210907_meeting_conception_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル社会構想会議の開催について（PDF／53KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/LykfW_XV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第1回デジタル社会構想会議（令和3年9月28日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/EQfDTVuA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル庁コンプライアンス委員会（令和3年9月29日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/AcLOjFsQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイナンバーカードの普及と健康保険証利用に関する関係府省庁会議（第5回）（令和3年9月29日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211021_meeting_my_number_wg_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループの開催について（PDF／91KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/bKRna084</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第1回）（令和3年10月22日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/icPUoaig</t>
-  </si>
-  <si>
-    <t>データ戦略ワーキンググループ（第1回）（令和3年10月25日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/NbtVwXoh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第2回デジタル社会構想会議（令和3年11月4日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/o88lhOm9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EBPM推進委員会（第1回）（令和3年11月4日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/3zmv1HyO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第1回）（プラットフォームにおけるデータ取扱いルールの実装に関する検討会（第5回））（令和3年11月16日開催）</t>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211109_meeting_extraordinary_administrative_research_committee_01.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会の開催について（PDF／75KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211116_meeting_extraordinary_administrative_research_committee_03.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会構成員（PDF／86KB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/54yivy_u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会（第1回）（令和3年11月16日開催）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/9kD1WCFK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トラストを確保したDX推進サブワーキンググループ（第1回）（令和3年11月18日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/-WRAugzZ</t>
-  </si>
-  <si>
-    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第2回）（令和3年11月22日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/Sl200Av1</t>
-  </si>
-  <si>
-    <t>こどもに関する情報・データ連携副大臣プロジェクトチーム（第1回）（令和3年11月26日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/2H5fQKcg</t>
-  </si>
-  <si>
-    <t>第3回デジタル社会構想会議（令和3年12月8日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/fkyjZNZY</t>
-  </si>
-  <si>
-    <t>トラストを確保したDX推進サブワーキンググループ（第2回）（令和3年12月13日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/SnUNooHr</t>
-  </si>
-  <si>
-    <t>デジタル庁コンプライアンス委員会（令和3年12月17日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/91qdfD4B</t>
-  </si>
-  <si>
-    <t>デジタル臨時行政調査会（第2回）（令和3年12月22日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/sccTvFQ1</t>
-  </si>
-  <si>
-    <t>第2回デジタル社会推進会議（令和3年12月24日開催）</t>
-  </si>
-  <si>
-    <t>https://www.digital.go.jp/meeting/posts/tXNuQc45</t>
-  </si>
-  <si>
-    <t>トラストを確保したDX推進サブワーキンググループ（第3回）</t>
   </si>
   <si>
     <t>行政手続における特定の個人を識別するための番号の利用等に関する法律に規定する個人番号、個人番号カード、特定個人情報の提供等に関する省令の一部を改正する命令の意見公募の結果が公表されました</t>
@@ -612,15 +406,232 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「デジタル社会の実現に向けた重点計画」が閣議決定されました</t>
-    <phoneticPr fontId="1"/>
+    <t>https://www.digital.go.jp/posts/pui4jA1O</t>
+  </si>
+  <si>
+    <t>電気通信回線を通じた送信又は電磁的記録媒体の送付の方法及び情報提供ネットワークシステムを使用した送信の方法に関する技術的基準の一部を改正する告示の意見公募の結果が公表されました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/a5F_DVWd</t>
+  </si>
+  <si>
+    <t>教育データ利活用ロードマップを策定しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/9i9h33ff</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第2回）を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内閣官房情報通信技術（ＩＴ）総合戦略室 コンプライアンス委員会（令和3年8月27日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/HTQB-hAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「デジタルの日」検討委員会設置のお知らせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/zvKTxKMK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1回デジタル社会推進会議（令和3年9月6日開催）</t>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210906_meeting_executive_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル社会推進会議幹事会の開催について（PDF／91KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/stdbnYdh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1回デジタル社会推進会議幹事会（令和3年9月10日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/gQ6Pun4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地方公共団体の基幹業務等システムの統一・標準化に関する関係府省会議（令和3年9月22日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20210907_meeting_conception_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル社会構想会議の開催について（PDF／53KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/LykfW_XV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1回デジタル社会構想会議（令和3年9月28日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/EQfDTVuA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル庁コンプライアンス委員会（令和3年9月29日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/AcLOjFsQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバーカードの普及と健康保険証利用に関する関係府省庁会議（第5回）（令和3年9月29日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211021_meeting_my_number_wg_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループの開催について（PDF／91KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/bKRna084</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第1回）（令和3年10月22日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/icPUoaig</t>
+  </si>
+  <si>
+    <t>データ戦略ワーキンググループ（第1回）（令和3年10月25日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/NbtVwXoh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2回デジタル社会構想会議（令和3年11月4日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/o88lhOm9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBPM推進委員会（第1回）（令和3年11月4日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/3zmv1HyO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第1回）（プラットフォームにおけるデータ取扱いルールの実装に関する検討会（第5回））（令和3年11月16日開催）</t>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211109_meeting_extraordinary_administrative_research_committee_01.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会の開催について（PDF／75KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cio.go.jp/sites/default/files/uploads/documents/digital/20211116_meeting_extraordinary_administrative_research_committee_03.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会構成員（PDF／86KB）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/54yivy_u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会（第1回）（令和3年11月16日開催）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/9kD1WCFK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第1回）（令和3年11月18日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/-WRAugzZ</t>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第2回）（令和3年11月22日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/Sl200Av1</t>
+  </si>
+  <si>
+    <t>こどもに関する情報・データ連携副大臣プロジェクトチーム（第1回）（令和3年11月26日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/2H5fQKcg</t>
+  </si>
+  <si>
+    <t>第3回デジタル社会構想会議（令和3年12月8日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/fkyjZNZY</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第2回）（令和3年12月13日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/SnUNooHr</t>
+  </si>
+  <si>
+    <t>デジタル庁コンプライアンス委員会（令和3年12月17日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/91qdfD4B</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会（第2回）（令和3年12月22日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/sccTvFQ1</t>
+  </si>
+  <si>
+    <t>第2回デジタル社会推進会議（令和3年12月24日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/tXNuQc45</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第3回）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,7 +787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1072,22 +1083,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="44" style="7" customWidth="1"/>
     <col min="3" max="3" width="73" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.19921875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="5"/>
+    <col min="4" max="4" width="37.25" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="6">
         <v>44348</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>44365</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>44378</v>
       </c>
@@ -1134,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>44378</v>
       </c>
@@ -1145,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>44393</v>
       </c>
@@ -1156,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>44397</v>
       </c>
@@ -1167,7 +1178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>44397</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="6">
         <v>44407</v>
       </c>
@@ -1189,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>44407</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>44412</v>
       </c>
@@ -1211,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>44421</v>
       </c>
@@ -1222,7 +1233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>44428</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="6">
         <v>44428</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>44431</v>
       </c>
@@ -1255,7 +1266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>44431</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>44435</v>
       </c>
@@ -1277,7 +1288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>44439</v>
       </c>
@@ -1288,7 +1299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="27">
       <c r="A19" s="6">
         <v>44439</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="27">
       <c r="A20" s="6">
         <v>44440</v>
       </c>
@@ -1310,7 +1321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>44440</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>44440</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>44442</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24" s="6">
         <v>44452</v>
       </c>
@@ -1354,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>44454</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26" s="6">
         <v>44455</v>
       </c>
@@ -1376,7 +1387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27" s="6">
         <v>44456</v>
       </c>
@@ -1387,7 +1398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28" s="6">
         <v>44463</v>
       </c>
@@ -1398,7 +1409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="6">
         <v>44467</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>44474</v>
       </c>
@@ -1420,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="A31" s="6">
         <v>44474</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>44475</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33" s="6">
         <v>44477</v>
       </c>
@@ -1453,7 +1464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
         <v>44480</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
         <v>44480</v>
       </c>
@@ -1475,7 +1486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="18.75">
       <c r="A36" s="6">
         <v>44480</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
         <v>44480</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
         <v>44483</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="27">
       <c r="A39" s="6">
         <v>44488</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>44489</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
         <v>44494</v>
       </c>
@@ -1541,7 +1552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
         <v>44495</v>
       </c>
@@ -1552,7 +1563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
         <v>44495</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="27">
       <c r="A44" s="6">
         <v>44495</v>
       </c>
@@ -1574,7 +1585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <v>44505</v>
       </c>
@@ -1585,7 +1596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" ht="27">
       <c r="A46" s="6">
         <v>44505</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="27">
       <c r="A47" s="6">
         <v>44509</v>
       </c>
@@ -1607,7 +1618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="40.5">
       <c r="A48" s="6">
         <v>44509</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="18.75">
       <c r="A49" s="6">
         <v>44510</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="18.75">
       <c r="A50" s="6">
         <v>44518</v>
       </c>
@@ -1640,7 +1651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="18.75">
       <c r="A51" s="6">
         <v>44525</v>
       </c>
@@ -1651,7 +1662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="27">
       <c r="A52" s="6">
         <v>44526</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="27">
       <c r="A53" s="6">
         <v>44531</v>
       </c>
@@ -1673,92 +1684,114 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="18.75">
       <c r="A54" s="6">
         <v>44533</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" ht="18.75">
       <c r="A55" s="6">
         <v>44537</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" ht="18.75">
       <c r="A56" s="6">
         <v>44550</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="18.75">
       <c r="A57" s="6">
         <v>44550</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" ht="27">
       <c r="A58" s="6">
         <v>44554</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" ht="18.75">
       <c r="A59" s="6">
         <v>44554</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="40.5">
       <c r="A60" s="6">
         <v>44557</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>114</v>
+      <c r="B60" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="40.5">
       <c r="A61" s="6">
         <v>44557</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>115</v>
+      <c r="B61" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75">
+      <c r="A62" s="6">
+        <v>44568</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="27">
+      <c r="A63" s="6">
+        <v>44568</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1783,9 +1816,11 @@
     <hyperlink ref="B59" r:id="rId14" xr:uid="{83819C68-DBEF-464A-B777-B454FE5ACF28}"/>
     <hyperlink ref="B60" r:id="rId15" xr:uid="{8BE90A31-EECA-45FA-8DC0-5EF0E6589D2F}"/>
     <hyperlink ref="B61" r:id="rId16" xr:uid="{0FFACF3C-92D3-4F57-9E63-ADFAD0F597A2}"/>
+    <hyperlink ref="B62" r:id="rId17" xr:uid="{7A6C1EAC-1F6D-48E9-97A7-D577D54B68FF}"/>
+    <hyperlink ref="B63" r:id="rId18" xr:uid="{3649AF30-D772-4371-8039-E6D94C2928D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1793,20 +1828,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="67.3984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="5"/>
+    <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="67.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,312 +1855,312 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="6">
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="6">
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="6">
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="6">
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="6">
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.5">
       <c r="A17" s="6">
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" s="6">
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27">
       <c r="A22" s="6">
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27">
       <c r="A23" s="6">
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
       <c r="A24" s="6">
         <v>44538</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>161</v>
+      <c r="B24" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75">
       <c r="A25" s="6">
         <v>44543</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>163</v>
+      <c r="B25" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
       <c r="A26" s="6">
         <v>44547</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>165</v>
+      <c r="B26" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
       <c r="A27" s="6">
         <v>44552</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>167</v>
+      <c r="B27" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75">
       <c r="A28" s="6">
         <v>44554</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>169</v>
+      <c r="B28" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75">
       <c r="A29" s="6">
         <v>44557</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>171</v>
+      <c r="B29" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2388,37 +2423,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
-    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0834C5B0-A6BB-4DEF-950C-011258553735}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0DFC79-BF42-4BD7-A1ED-F9482A5151DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第2回）を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/dbdnccO9</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1083,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1792,6 +1795,17 @@
       </c>
       <c r="C63" s="8" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="27">
+      <c r="A64" s="6">
+        <v>44572</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1818,9 +1832,10 @@
     <hyperlink ref="B61" r:id="rId16" xr:uid="{0FFACF3C-92D3-4F57-9E63-ADFAD0F597A2}"/>
     <hyperlink ref="B62" r:id="rId17" xr:uid="{7A6C1EAC-1F6D-48E9-97A7-D577D54B68FF}"/>
     <hyperlink ref="B63" r:id="rId18" xr:uid="{3649AF30-D772-4371-8039-E6D94C2928D1}"/>
+    <hyperlink ref="B64" r:id="rId19" xr:uid="{B1B19668-6F1C-4859-9CB1-69D05D4FF86B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1860,10 +1875,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1871,10 +1886,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1882,10 +1897,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1893,10 +1908,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1904,10 +1919,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1915,10 +1930,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1926,10 +1941,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1937,10 +1952,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1948,10 +1963,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -1959,10 +1974,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -1970,10 +1985,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -1981,10 +1996,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1992,10 +2007,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2003,10 +2018,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2014,10 +2029,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2025,10 +2040,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2036,10 +2051,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2047,10 +2062,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2058,10 +2073,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2069,10 +2084,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2080,10 +2095,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2091,10 +2106,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2102,10 +2117,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2113,10 +2128,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2124,10 +2139,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2135,10 +2150,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2146,10 +2161,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2157,10 +2172,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0DFC79-BF42-4BD7-A1ED-F9482A5151DB}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A00F8E8-376F-4118-8376-2F13D2314E1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/dbdnccO9</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/qcm0KZc-</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1086,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1806,6 +1809,17 @@
       </c>
       <c r="C64" s="8" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75">
+      <c r="A65" s="6">
+        <v>44574</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1833,9 +1847,10 @@
     <hyperlink ref="B62" r:id="rId17" xr:uid="{7A6C1EAC-1F6D-48E9-97A7-D577D54B68FF}"/>
     <hyperlink ref="B63" r:id="rId18" xr:uid="{3649AF30-D772-4371-8039-E6D94C2928D1}"/>
     <hyperlink ref="B64" r:id="rId19" xr:uid="{B1B19668-6F1C-4859-9CB1-69D05D4FF86B}"/>
+    <hyperlink ref="B65" r:id="rId20" xr:uid="{AC5FFB1A-F0B0-4EFD-8959-71C4257B7156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1875,10 +1890,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1886,10 +1901,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1897,10 +1912,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1908,10 +1923,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1919,10 +1934,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1930,10 +1945,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1941,10 +1956,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1952,10 +1967,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1963,10 +1978,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -1974,10 +1989,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -1985,10 +2000,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -1996,10 +2011,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2007,10 +2022,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2018,10 +2033,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2029,10 +2044,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2040,10 +2055,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2051,10 +2066,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2062,10 +2077,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2073,10 +2088,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2084,10 +2099,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2095,10 +2110,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2106,10 +2121,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2117,10 +2132,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2128,10 +2143,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2139,10 +2154,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2150,10 +2165,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2161,10 +2176,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2172,10 +2187,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2206,15 +2221,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2437,14 +2443,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A00F8E8-376F-4118-8376-2F13D2314E1C}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF198AC-22C2-4DC4-9C3E-911C6970337F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/qcm0KZc-</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/SdekP8ml</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第3回）を開催します</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1089,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1820,6 +1826,17 @@
       </c>
       <c r="C65" s="8" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27">
+      <c r="A66" s="6">
+        <v>44579</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1848,9 +1865,10 @@
     <hyperlink ref="B63" r:id="rId18" xr:uid="{3649AF30-D772-4371-8039-E6D94C2928D1}"/>
     <hyperlink ref="B64" r:id="rId19" xr:uid="{B1B19668-6F1C-4859-9CB1-69D05D4FF86B}"/>
     <hyperlink ref="B65" r:id="rId20" xr:uid="{AC5FFB1A-F0B0-4EFD-8959-71C4257B7156}"/>
+    <hyperlink ref="B66" r:id="rId21" xr:uid="{5D5F1B12-5182-4385-B824-FAF2A2266F9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1890,10 +1908,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1901,10 +1919,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1912,10 +1930,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1923,10 +1941,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1934,10 +1952,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1945,10 +1963,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1956,10 +1974,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1967,10 +1985,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1978,10 +1996,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -1989,10 +2007,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2000,10 +2018,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2011,10 +2029,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2022,10 +2040,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2033,10 +2051,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2044,10 +2062,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2055,10 +2073,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2066,10 +2084,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2077,10 +2095,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2088,10 +2106,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2099,10 +2117,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2110,10 +2128,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2121,10 +2139,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2132,10 +2150,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2143,10 +2161,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2154,10 +2172,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2165,10 +2183,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2176,10 +2194,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2187,10 +2205,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2221,6 +2239,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2443,23 +2470,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF198AC-22C2-4DC4-9C3E-911C6970337F}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8172C011-BF7D-4BAA-ADF0-37351490857D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第3回）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/64HQeKLf</t>
+  </si>
+  <si>
+    <t>こどもに関する情報・データ連携 副大臣プロジェクトチーム（第2回）</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -1874,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2209,6 +2215,17 @@
       </c>
       <c r="C29" s="8" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75">
+      <c r="A30" s="6">
+        <v>44582</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2226,9 +2243,10 @@
     <hyperlink ref="B27" r:id="rId7" xr:uid="{E5B50F86-63AE-4898-90FC-9C71E7D0799E}"/>
     <hyperlink ref="B28" r:id="rId8" xr:uid="{3047DE42-D6E9-427A-B25C-FCECA8B348BD}"/>
     <hyperlink ref="B29" r:id="rId9" xr:uid="{72ADA22D-7EBE-465B-AAD2-0C50C3366707}"/>
+    <hyperlink ref="B30" r:id="rId10" xr:uid="{35E336CB-3B23-4951-B071-A16A7A534180}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2239,15 +2257,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2470,14 +2479,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8172C011-BF7D-4BAA-ADF0-37351490857D}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B9E6B7-E4A0-4F82-B29B-8F18413A12FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第3回）を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/H4KLVGtr</t>
+  </si>
+  <si>
+    <t>こどもに関する各種データの連携による支援実証事業の概要を発表しました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1101,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1843,6 +1849,17 @@
       </c>
       <c r="C66" s="8" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75">
+      <c r="A67" s="6">
+        <v>44582</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1872,9 +1889,10 @@
     <hyperlink ref="B64" r:id="rId19" xr:uid="{B1B19668-6F1C-4859-9CB1-69D05D4FF86B}"/>
     <hyperlink ref="B65" r:id="rId20" xr:uid="{AC5FFB1A-F0B0-4EFD-8959-71C4257B7156}"/>
     <hyperlink ref="B66" r:id="rId21" xr:uid="{5D5F1B12-5182-4385-B824-FAF2A2266F9A}"/>
+    <hyperlink ref="B67" r:id="rId22" xr:uid="{FC86D023-8F3D-47D8-84A6-49CD2E3F9C40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1882,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1914,10 +1932,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1925,10 +1943,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1936,10 +1954,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1947,10 +1965,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1958,10 +1976,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1969,10 +1987,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1980,10 +1998,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1991,10 +2009,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2002,10 +2020,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2013,10 +2031,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2024,10 +2042,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2035,10 +2053,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2046,10 +2064,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2057,10 +2075,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2068,10 +2086,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2079,10 +2097,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2090,10 +2108,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2101,10 +2119,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2112,10 +2130,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2123,10 +2141,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2134,10 +2152,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2145,10 +2163,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2156,10 +2174,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2167,10 +2185,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2178,10 +2196,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2189,10 +2207,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2200,10 +2218,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2211,10 +2229,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2222,10 +2240,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2251,9 +2269,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2480,16 +2501,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2497,5 +2515,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B9E6B7-E4A0-4F82-B29B-8F18413A12FC}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B0BA26-B67A-4B46-A363-C5A22FAF10D2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="189">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>こどもに関する各種データの連携による支援実証事業の概要を発表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/snKVI9rx</t>
+  </si>
+  <si>
+    <t>新型コロナワクチン接種状況のダッシュボードとオープンデータをリニューアルしました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1107,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1860,6 +1866,17 @@
       </c>
       <c r="C67" s="8" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75">
+      <c r="A68" s="6">
+        <v>44585</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1890,9 +1907,10 @@
     <hyperlink ref="B65" r:id="rId20" xr:uid="{AC5FFB1A-F0B0-4EFD-8959-71C4257B7156}"/>
     <hyperlink ref="B66" r:id="rId21" xr:uid="{5D5F1B12-5182-4385-B824-FAF2A2266F9A}"/>
     <hyperlink ref="B67" r:id="rId22" xr:uid="{FC86D023-8F3D-47D8-84A6-49CD2E3F9C40}"/>
+    <hyperlink ref="B68" r:id="rId23" xr:uid="{62F64802-4678-4081-8C5B-5278421A6CDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1932,10 +1950,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1943,10 +1961,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1954,10 +1972,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1965,10 +1983,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1976,10 +1994,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -1987,10 +2005,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1998,10 +2016,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2009,10 +2027,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2020,10 +2038,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2031,10 +2049,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2042,10 +2060,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2053,10 +2071,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2064,10 +2082,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2075,10 +2093,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2086,10 +2104,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2097,10 +2115,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2108,10 +2126,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2119,10 +2137,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2130,10 +2148,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2141,10 +2159,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2152,10 +2170,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2163,10 +2181,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2174,10 +2192,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2185,10 +2203,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2196,10 +2214,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2207,10 +2225,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2218,10 +2236,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2229,10 +2247,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2240,10 +2258,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2269,15 +2287,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2500,6 +2509,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2507,11 +2525,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B0BA26-B67A-4B46-A363-C5A22FAF10D2}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A62D86-165E-48B1-8C95-4F5DBE2F540B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -656,12 +656,18 @@
   <si>
     <t>こどもに関する情報・データ連携 副大臣プロジェクトチーム（第2回）</t>
   </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/GLvad6b1</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第4回）（令和4年1月25日開催）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,7 +823,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1115,11 +1121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="44" style="7" customWidth="1"/>
@@ -1128,7 +1134,7 @@
     <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>44348</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>44365</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>44378</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>44378</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>44393</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>44397</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>44397</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>44407</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>44407</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>44412</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>44421</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>44428</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>44428</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>44431</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>44431</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>44435</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>44439</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27">
+    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>44439</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27">
+    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>44440</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>44440</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>44440</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>44442</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>44452</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>44454</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>44455</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>44456</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>44463</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>44467</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>44474</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>44474</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="6">
         <v>44475</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>44477</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>44480</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>44480</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <v>44480</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <v>44480</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>44483</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="27">
+    <row r="39" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>44488</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>44489</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>44494</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>44495</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>44495</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="27">
+    <row r="44" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>44495</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>44505</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="27">
+    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>44505</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="27">
+    <row r="47" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>44509</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40.5">
+    <row r="48" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>44509</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>44510</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75">
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>44518</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75">
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>44525</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="27">
+    <row r="52" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>44526</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27">
+    <row r="53" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>44531</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75">
+    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>44533</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75">
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>44537</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75">
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>44550</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75">
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>44550</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="27">
+    <row r="58" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>44554</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75">
+    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>44554</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40.5">
+    <row r="60" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A60" s="6">
         <v>44557</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40.5">
+    <row r="61" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A61" s="6">
         <v>44557</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75">
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <v>44568</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="27">
+    <row r="63" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A63" s="6">
         <v>44568</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="27">
+    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="6">
         <v>44572</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75">
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="6">
         <v>44574</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="27">
+    <row r="66" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A66" s="6">
         <v>44579</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75">
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="6">
         <v>44582</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75">
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="6">
         <v>44585</v>
       </c>
@@ -1916,13 +1922,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="7" customWidth="1"/>
@@ -1931,7 +1937,7 @@
     <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>44435</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>44440</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>44445</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>44449</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>44449</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>44461</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>44467</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>44467</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>44468</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>44468</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27">
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>44491</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>44491</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>44494</v>
       </c>
@@ -2088,18 +2094,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>44504</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>44504</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40.5">
+    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>44516</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>44516</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>44516</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>44516</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>44518</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27">
+    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>44522</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27">
+    <row r="23" spans="1:3" ht="27" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>44526</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>44538</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>44543</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>44547</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>44552</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>44554</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>44557</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>44582</v>
       </c>
@@ -2262,6 +2268,17 @@
       </c>
       <c r="C30" s="8" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2280,9 +2297,11 @@
     <hyperlink ref="B28" r:id="rId8" xr:uid="{3047DE42-D6E9-427A-B25C-FCECA8B348BD}"/>
     <hyperlink ref="B29" r:id="rId9" xr:uid="{72ADA22D-7EBE-465B-AAD2-0C50C3366707}"/>
     <hyperlink ref="B30" r:id="rId10" xr:uid="{35E336CB-3B23-4951-B071-A16A7A534180}"/>
+    <hyperlink ref="B31" r:id="rId11" xr:uid="{DDA41D4F-E2FD-477A-8D40-5811A7382868}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{3AEF83F6-8DA1-42CF-930E-12E6F5E00CAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2525,13 +2544,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
+    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A62D86-165E-48B1-8C95-4F5DBE2F540B}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57B16CC-AE5B-4CBC-B474-2D2C31542574}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -448,6 +448,12 @@
     <t>新型コロナワクチン接種状況のダッシュボードとオープンデータをリニューアルしました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/vIQ4kN-Q</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第4回）を開催します</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,7 +829,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1119,13 +1125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="44" style="7" customWidth="1"/>
@@ -1134,7 +1140,7 @@
     <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="6">
         <v>44348</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>44365</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>44378</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>44378</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>44393</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>44397</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>44397</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="6">
         <v>44407</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>44407</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>44412</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>44421</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>44428</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="6">
         <v>44428</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>44431</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>44431</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>44435</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>44439</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="27">
       <c r="A19" s="6">
         <v>44439</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="27">
       <c r="A20" s="6">
         <v>44440</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>44440</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>44440</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>44442</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3">
       <c r="A24" s="6">
         <v>44452</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>44454</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="A26" s="6">
         <v>44455</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3">
       <c r="A27" s="6">
         <v>44456</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3">
       <c r="A28" s="6">
         <v>44463</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3">
       <c r="A29" s="6">
         <v>44467</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>44474</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3">
       <c r="A31" s="6">
         <v>44474</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>44475</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3">
       <c r="A33" s="6">
         <v>44477</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
         <v>44480</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
         <v>44480</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="18.75">
       <c r="A36" s="6">
         <v>44480</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
         <v>44480</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
         <v>44483</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="27">
       <c r="A39" s="6">
         <v>44488</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>44489</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
         <v>44494</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
         <v>44495</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
         <v>44495</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="27">
       <c r="A44" s="6">
         <v>44495</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <v>44505</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="27">
       <c r="A46" s="6">
         <v>44505</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="27">
       <c r="A47" s="6">
         <v>44509</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="40.5">
       <c r="A48" s="6">
         <v>44509</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="18.75">
       <c r="A49" s="6">
         <v>44510</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="18.75">
       <c r="A50" s="6">
         <v>44518</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="18.75">
       <c r="A51" s="6">
         <v>44525</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="27">
       <c r="A52" s="6">
         <v>44526</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="27">
       <c r="A53" s="6">
         <v>44531</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="18.75">
       <c r="A54" s="6">
         <v>44533</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="18.75">
       <c r="A55" s="6">
         <v>44537</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="18.75">
       <c r="A56" s="6">
         <v>44550</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="18.75">
       <c r="A57" s="6">
         <v>44550</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="27">
       <c r="A58" s="6">
         <v>44554</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="18.75">
       <c r="A59" s="6">
         <v>44554</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="40.5">
       <c r="A60" s="6">
         <v>44557</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="40.5">
       <c r="A61" s="6">
         <v>44557</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="18.75">
       <c r="A62" s="6">
         <v>44568</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="27">
       <c r="A63" s="6">
         <v>44568</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="18.75">
       <c r="A64" s="6">
         <v>44572</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="18.75">
       <c r="A65" s="6">
         <v>44574</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="27">
       <c r="A66" s="6">
         <v>44579</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="18.75">
       <c r="A67" s="6">
         <v>44582</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="18.75">
       <c r="A68" s="6">
         <v>44585</v>
       </c>
@@ -1883,6 +1889,17 @@
       </c>
       <c r="C68" s="8" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="27">
+      <c r="A69" s="6">
+        <v>44594</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1914,9 +1931,10 @@
     <hyperlink ref="B66" r:id="rId21" xr:uid="{5D5F1B12-5182-4385-B824-FAF2A2266F9A}"/>
     <hyperlink ref="B67" r:id="rId22" xr:uid="{FC86D023-8F3D-47D8-84A6-49CD2E3F9C40}"/>
     <hyperlink ref="B68" r:id="rId23" xr:uid="{62F64802-4678-4081-8C5B-5278421A6CDB}"/>
+    <hyperlink ref="B69" r:id="rId24" xr:uid="{B534DFAF-50D0-46F5-8901-20732D186360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -1924,11 +1942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="7" customWidth="1"/>
@@ -1937,7 +1955,7 @@
     <col min="5" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,334 +1969,334 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="6">
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="6">
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="6">
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="6">
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="6">
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="6">
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.5">
       <c r="A17" s="6">
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" s="6">
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27">
       <c r="A22" s="6">
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="27" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27">
       <c r="A23" s="6">
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
       <c r="A24" s="6">
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75">
       <c r="A25" s="6">
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
       <c r="A26" s="6">
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
       <c r="A27" s="6">
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75">
       <c r="A28" s="6">
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75">
       <c r="A29" s="6">
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75">
       <c r="A30" s="6">
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75">
       <c r="A31" s="6">
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2529,6 +2547,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2537,52 +2561,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
-    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="51aa5701-5c89-4b18-ad02-d8592833e883"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57B16CC-AE5B-4CBC-B474-2D2C31542574}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158338B4-D55F-4A04-AC97-4F160B1C2EAD}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第4回）を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/LQNXkj8T</t>
+  </si>
+  <si>
+    <t>こどもに関する各種データの連携による支援実証事業（地方公共団体におけるデータ連携の実証に係る調査研究）の公募を開始します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/xp4mV1ce</t>
+  </si>
+  <si>
+    <t>民間事業者に対してマイナンバーカード（ICチップ）の空き領域の利用に関する告示を行いました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1125,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1900,6 +1912,28 @@
       </c>
       <c r="C69" s="8" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="27">
+      <c r="A70" s="6">
+        <v>44596</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="27">
+      <c r="A71" s="6">
+        <v>44596</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1932,9 +1966,11 @@
     <hyperlink ref="B67" r:id="rId22" xr:uid="{FC86D023-8F3D-47D8-84A6-49CD2E3F9C40}"/>
     <hyperlink ref="B68" r:id="rId23" xr:uid="{62F64802-4678-4081-8C5B-5278421A6CDB}"/>
     <hyperlink ref="B69" r:id="rId24" xr:uid="{B534DFAF-50D0-46F5-8901-20732D186360}"/>
+    <hyperlink ref="B70" r:id="rId25" xr:uid="{3A82B179-B8F0-42E8-834C-222CFB0FB887}"/>
+    <hyperlink ref="B71" r:id="rId26" xr:uid="{940914F6-FF22-4E4B-A91C-EB4F5D43409D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -1974,10 +2010,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1985,10 +2021,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1996,10 +2032,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2007,10 +2043,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2018,10 +2054,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2029,10 +2065,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2040,10 +2076,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2051,10 +2087,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2062,10 +2098,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2073,10 +2109,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2084,10 +2120,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2095,10 +2131,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2106,10 +2142,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2117,10 +2153,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2128,10 +2164,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2139,10 +2175,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2150,10 +2186,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2161,10 +2197,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2172,10 +2208,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2183,10 +2219,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2194,10 +2230,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2205,10 +2241,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2216,10 +2252,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2227,10 +2263,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2238,10 +2274,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2249,10 +2285,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2260,10 +2296,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2271,10 +2307,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2282,10 +2318,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2293,10 +2329,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2324,6 +2360,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2546,12 +2588,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2562,11 +2598,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158338B4-D55F-4A04-AC97-4F160B1C2EAD}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358F3783-A1AD-4D9B-A218-65637718EC48}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -466,6 +466,18 @@
     <t>民間事業者に対してマイナンバーカード（ICチップ）の空き領域の利用に関する告示を行いました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/NBqauWpN</t>
+  </si>
+  <si>
+    <t>「情報通信技術を利用する方法による国の歳入等の納付に関する法律案」が第208回国会（通常国会）に提出されました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/1A_v8lYr</t>
+  </si>
+  <si>
+    <t>第1回デジタル臨時行政調査会作業部会を開催 規制の横断的な点検・見直しを開始しました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -679,6 +691,12 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第4回）（令和4年1月25日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/moAAHy8B</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第5回）（令和4年2月8日開催）</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B66" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
@@ -1934,6 +1952,28 @@
       </c>
       <c r="C71" s="8" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="27">
+      <c r="A72" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="27">
+      <c r="A73" s="6">
+        <v>44602</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1968,18 +2008,20 @@
     <hyperlink ref="B69" r:id="rId24" xr:uid="{B534DFAF-50D0-46F5-8901-20732D186360}"/>
     <hyperlink ref="B70" r:id="rId25" xr:uid="{3A82B179-B8F0-42E8-834C-222CFB0FB887}"/>
     <hyperlink ref="B71" r:id="rId26" xr:uid="{940914F6-FF22-4E4B-A91C-EB4F5D43409D}"/>
+    <hyperlink ref="B72" r:id="rId27" xr:uid="{D89DE1A4-5A67-4D78-A6C8-1AC9A011B44F}"/>
+    <hyperlink ref="B73" r:id="rId28" xr:uid="{C04829B6-526A-4CCF-B9C3-6D1214A28237}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2010,10 +2052,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2021,10 +2063,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2032,10 +2074,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2043,10 +2085,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2054,10 +2096,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2065,10 +2107,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2076,10 +2118,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2087,10 +2129,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2098,10 +2140,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2109,10 +2151,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2120,10 +2162,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2131,10 +2173,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2142,10 +2184,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2153,10 +2195,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2164,10 +2206,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2175,10 +2217,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2186,10 +2228,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2197,10 +2239,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2208,10 +2250,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2219,10 +2261,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2230,10 +2272,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2241,10 +2283,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2252,10 +2294,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2263,10 +2305,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2274,10 +2316,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2285,10 +2327,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2296,10 +2338,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2307,10 +2349,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2318,10 +2360,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2329,10 +2371,21 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27">
+      <c r="A32" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2353,19 +2406,29 @@
     <hyperlink ref="B30" r:id="rId10" xr:uid="{35E336CB-3B23-4951-B071-A16A7A534180}"/>
     <hyperlink ref="B31" r:id="rId11" xr:uid="{DDA41D4F-E2FD-477A-8D40-5811A7382868}"/>
     <hyperlink ref="B15" r:id="rId12" xr:uid="{3AEF83F6-8DA1-42CF-930E-12E6F5E00CAE}"/>
+    <hyperlink ref="B32" r:id="rId13" xr:uid="{D3836A78-C76B-4845-A948-3EAE295A263B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2588,23 +2651,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358F3783-A1AD-4D9B-A218-65637718EC48}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D8B39E-C92A-4167-AA9C-E543E4FEAE44}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="207">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -478,6 +479,12 @@
     <t>第1回デジタル臨時行政調査会作業部会を開催 規制の横断的な点検・見直しを開始しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/mWh4D8iz</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第5回）を開催します</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -697,6 +704,12 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第5回）（令和4年2月8日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/OkKwCLVn</t>
+  </si>
+  <si>
+    <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第2回）</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1974,6 +1987,17 @@
       </c>
       <c r="C73" s="8" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="27">
+      <c r="A74" s="6">
+        <v>44608</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2010,18 +2034,19 @@
     <hyperlink ref="B71" r:id="rId26" xr:uid="{940914F6-FF22-4E4B-A91C-EB4F5D43409D}"/>
     <hyperlink ref="B72" r:id="rId27" xr:uid="{D89DE1A4-5A67-4D78-A6C8-1AC9A011B44F}"/>
     <hyperlink ref="B73" r:id="rId28" xr:uid="{C04829B6-526A-4CCF-B9C3-6D1214A28237}"/>
+    <hyperlink ref="B74" r:id="rId29" xr:uid="{A6A452C6-394B-40A6-9065-0161F503B01A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2052,10 +2077,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2063,10 +2088,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2074,10 +2099,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2085,10 +2110,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2096,10 +2121,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2107,10 +2132,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2118,10 +2143,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2129,10 +2154,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2140,10 +2165,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2151,10 +2176,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2162,10 +2187,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2173,10 +2198,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2184,10 +2209,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2195,10 +2220,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2206,10 +2231,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2217,10 +2242,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2228,10 +2253,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2239,10 +2264,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2250,10 +2275,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2261,10 +2286,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2272,10 +2297,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2283,10 +2308,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2294,10 +2319,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2305,10 +2330,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2316,10 +2341,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2327,10 +2352,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2338,10 +2363,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2349,10 +2374,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2360,10 +2385,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2371,10 +2396,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2382,10 +2407,21 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27">
+      <c r="A33" s="6">
+        <v>44606</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2407,28 +2443,14 @@
     <hyperlink ref="B31" r:id="rId11" xr:uid="{DDA41D4F-E2FD-477A-8D40-5811A7382868}"/>
     <hyperlink ref="B15" r:id="rId12" xr:uid="{3AEF83F6-8DA1-42CF-930E-12E6F5E00CAE}"/>
     <hyperlink ref="B32" r:id="rId13" xr:uid="{D3836A78-C76B-4845-A948-3EAE295A263B}"/>
+    <hyperlink ref="B33" r:id="rId14" xr:uid="{91F53A5D-3089-46D0-9AEB-85D3235D1EB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2651,8 +2673,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2660,5 +2697,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D8B39E-C92A-4167-AA9C-E543E4FEAE44}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9FAC5F0-FC84-40FD-AC9C-B10A4B4D5AFA}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -485,6 +485,12 @@
     <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第5回）を開催します</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/ZO16R_sA</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第1回会合を開催しました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -710,6 +716,15 @@
   </si>
   <si>
     <t>プラットフォームにおけるデータ取扱いルールの実装に関するサブワーキンググループ（第2回）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/vkGKbhep</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム（第1回）（令和4年2月17日開催）</t>
+  </si>
+  <si>
+    <t>デジタル庁コンプライアンス委員会（令和4年2月17日開催）</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1998,6 +2013,17 @@
       </c>
       <c r="C74" s="8" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="27">
+      <c r="A75" s="6">
+        <v>44609</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2035,18 +2061,19 @@
     <hyperlink ref="B72" r:id="rId27" xr:uid="{D89DE1A4-5A67-4D78-A6C8-1AC9A011B44F}"/>
     <hyperlink ref="B73" r:id="rId28" xr:uid="{C04829B6-526A-4CCF-B9C3-6D1214A28237}"/>
     <hyperlink ref="B74" r:id="rId29" xr:uid="{A6A452C6-394B-40A6-9065-0161F503B01A}"/>
+    <hyperlink ref="B75" r:id="rId30" xr:uid="{A0675B0E-0A70-4931-A675-113BC7F869BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId31"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2077,10 +2104,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2088,10 +2115,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2099,10 +2126,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2110,10 +2137,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2121,10 +2148,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2132,10 +2159,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2143,10 +2170,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2154,10 +2181,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2165,10 +2192,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2176,10 +2203,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2187,10 +2214,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2198,10 +2225,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2209,10 +2236,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2220,10 +2247,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2231,10 +2258,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2242,10 +2269,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2253,10 +2280,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2264,10 +2291,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2275,10 +2302,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2286,10 +2313,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2297,10 +2324,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2308,10 +2335,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2319,10 +2346,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2330,10 +2357,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2341,10 +2368,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2352,10 +2379,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2363,10 +2390,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2374,10 +2401,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2385,10 +2412,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2396,10 +2423,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2407,10 +2434,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2418,10 +2445,32 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27">
+      <c r="A34" s="6">
+        <v>44609</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75">
+      <c r="A35" s="6">
+        <v>44609</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2444,13 +2493,21 @@
     <hyperlink ref="B15" r:id="rId12" xr:uid="{3AEF83F6-8DA1-42CF-930E-12E6F5E00CAE}"/>
     <hyperlink ref="B32" r:id="rId13" xr:uid="{D3836A78-C76B-4845-A948-3EAE295A263B}"/>
     <hyperlink ref="B33" r:id="rId14" xr:uid="{91F53A5D-3089-46D0-9AEB-85D3235D1EB7}"/>
+    <hyperlink ref="B34" r:id="rId15" xr:uid="{7E5A8B2A-7958-4670-ADBA-6A54E12C5DA0}"/>
+    <hyperlink ref="B35" r:id="rId16" xr:uid="{B669C162-5AA5-451B-B3A1-A58447995044}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2673,12 +2730,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2689,11 +2740,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9FAC5F0-FC84-40FD-AC9C-B10A4B4D5AFA}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A669B44A-E62D-4E5A-97EB-F6AEA20EB5A6}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="218">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -491,6 +490,12 @@
     <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第1回会合を開催しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/vV3M2yLJ</t>
+  </si>
+  <si>
+    <t>第2回デジタル臨調作業部会を開催 官民連携し、アナログな規制を代替する先端技術を学びました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -725,6 +730,18 @@
   </si>
   <si>
     <t>デジタル庁コンプライアンス委員会（令和4年2月17日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/zCAtHaqf</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第2回）（令和4年2月22日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/VMXYJ6B0</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第3回）（令和4年2月22日開催）</t>
   </si>
 </sst>
 </file>
@@ -827,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +883,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1183,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2024,6 +2044,17 @@
       </c>
       <c r="C75" s="8" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="27">
+      <c r="A76" s="6">
+        <v>44614</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2062,18 +2093,19 @@
     <hyperlink ref="B73" r:id="rId28" xr:uid="{C04829B6-526A-4CCF-B9C3-6D1214A28237}"/>
     <hyperlink ref="B74" r:id="rId29" xr:uid="{A6A452C6-394B-40A6-9065-0161F503B01A}"/>
     <hyperlink ref="B75" r:id="rId30" xr:uid="{A0675B0E-0A70-4931-A675-113BC7F869BC}"/>
+    <hyperlink ref="B76" r:id="rId31" xr:uid="{25AC906C-A974-4BF0-A449-69B8B5E66249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2104,10 +2136,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2115,10 +2147,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2126,10 +2158,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2137,10 +2169,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2148,10 +2180,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2159,10 +2191,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2170,10 +2202,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2181,10 +2213,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2192,10 +2224,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2203,10 +2235,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2214,10 +2246,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2225,10 +2257,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2236,10 +2268,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2247,10 +2279,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2258,10 +2290,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2269,10 +2301,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2280,10 +2312,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2291,10 +2323,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2302,10 +2334,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2313,10 +2345,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2324,10 +2356,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2335,10 +2367,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2346,10 +2378,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2357,10 +2389,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2368,10 +2400,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2379,10 +2411,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2390,10 +2422,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2401,10 +2433,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2412,10 +2444,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2423,10 +2455,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2434,10 +2466,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2445,10 +2477,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2456,10 +2488,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2467,10 +2499,32 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75">
+      <c r="A36" s="6">
+        <v>44614</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37.5">
+      <c r="A37" s="6">
+        <v>44614</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2495,9 +2549,11 @@
     <hyperlink ref="B33" r:id="rId14" xr:uid="{91F53A5D-3089-46D0-9AEB-85D3235D1EB7}"/>
     <hyperlink ref="B34" r:id="rId15" xr:uid="{7E5A8B2A-7958-4670-ADBA-6A54E12C5DA0}"/>
     <hyperlink ref="B35" r:id="rId16" xr:uid="{B669C162-5AA5-451B-B3A1-A58447995044}"/>
+    <hyperlink ref="B36" r:id="rId17" xr:uid="{1BAB2C56-07F9-4AD8-B256-D126C4E4411E}"/>
+    <hyperlink ref="B37" r:id="rId18" xr:uid="{7C67AD4C-EEE0-4C9B-88F8-319AFE588E2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2508,6 +2564,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2730,23 +2795,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25023"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A669B44A-E62D-4E5A-97EB-F6AEA20EB5A6}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA948F2-8241-4CCB-810C-42D53E9FB706}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="220">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会作業部会（第3回）（令和4年2月22日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/eO-AP2lW</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第6回）（令和4年2月25日開催）</t>
   </si>
 </sst>
 </file>
@@ -2102,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2525,6 +2531,17 @@
       </c>
       <c r="C37" s="8" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="27">
+      <c r="A38" s="6">
+        <v>44617</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2551,25 +2568,26 @@
     <hyperlink ref="B35" r:id="rId16" xr:uid="{B669C162-5AA5-451B-B3A1-A58447995044}"/>
     <hyperlink ref="B36" r:id="rId17" xr:uid="{1BAB2C56-07F9-4AD8-B256-D126C4E4411E}"/>
     <hyperlink ref="B37" r:id="rId18" xr:uid="{7C67AD4C-EEE0-4C9B-88F8-319AFE588E2B}"/>
+    <hyperlink ref="B38" r:id="rId19" xr:uid="{36F55159-0797-4370-87D5-E8C6AFF6A280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2796,11 +2814,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA948F2-8241-4CCB-810C-42D53E9FB706}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12EF9FC5-365A-4474-859E-07B484CA32DD}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="226">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -494,6 +494,24 @@
   </si>
   <si>
     <t>第2回デジタル臨調作業部会を開催 官民連携し、アナログな規制を代替する先端技術を学びました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/H3kMGyNK</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第2回会合を開催しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/nDu6utZi</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第6回）を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/wc04XJ5_</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会、関係省庁と見直しの議論を開始しました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1209,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B75" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2061,6 +2079,39 @@
       </c>
       <c r="C76" s="8" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="27">
+      <c r="A77" s="6">
+        <v>44620</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="27">
+      <c r="A78" s="6">
+        <v>44623</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75">
+      <c r="A79" s="6">
+        <v>44630</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2100,9 +2151,12 @@
     <hyperlink ref="B74" r:id="rId29" xr:uid="{A6A452C6-394B-40A6-9065-0161F503B01A}"/>
     <hyperlink ref="B75" r:id="rId30" xr:uid="{A0675B0E-0A70-4931-A675-113BC7F869BC}"/>
     <hyperlink ref="B76" r:id="rId31" xr:uid="{25AC906C-A974-4BF0-A449-69B8B5E66249}"/>
+    <hyperlink ref="B77" r:id="rId32" xr:uid="{D6055201-EFE9-4C67-90F7-1731202A336F}"/>
+    <hyperlink ref="B78" r:id="rId33" xr:uid="{4913CFE3-CA1A-4507-B868-E64C2CCB96DD}"/>
+    <hyperlink ref="B79" r:id="rId34" xr:uid="{30B9BBFA-62DF-4EB8-9BF9-C099F65F3680}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2110,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B31" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -2142,10 +2196,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2153,10 +2207,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2164,10 +2218,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2175,10 +2229,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2186,10 +2240,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2197,10 +2251,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2208,10 +2262,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2219,10 +2273,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2230,10 +2284,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2241,10 +2295,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2252,10 +2306,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2263,10 +2317,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2274,10 +2328,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2285,10 +2339,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2296,10 +2350,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2307,10 +2361,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2318,10 +2372,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2329,10 +2383,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2340,10 +2394,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2351,10 +2405,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2362,10 +2416,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2373,10 +2427,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2384,10 +2438,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2395,10 +2449,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2406,10 +2460,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2417,10 +2471,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2428,10 +2482,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2439,10 +2493,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2450,10 +2504,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2461,10 +2515,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2472,10 +2526,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2483,10 +2537,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2494,10 +2548,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2505,10 +2559,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2516,10 +2570,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2527,10 +2581,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2538,10 +2592,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2576,21 +2630,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2813,14 +2858,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12EF9FC5-365A-4474-859E-07B484CA32DD}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7443BACF-B91F-45DA-9B27-9FE9607F5C9B}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="236">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -514,6 +515,18 @@
     <t>デジタル臨時行政調査会作業部会、関係省庁と見直しの議論を開始しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/gvJ-J2GV</t>
+  </si>
+  <si>
+    <t>多様なステークホルダーで行政デジタル化をともに考える「Govtech Meetup」（第7回）を開催します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/Iuq7EUcu</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第3回会合を開催しました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -766,6 +779,24 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第6回）（令和4年2月25日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/OiQ8dBEV</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第5回）（令和4年3月15日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/DExoduDe</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム（第3回）（令和4年3月16日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/Pwml-5Z0</t>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第3回）（令和4年3月17日開催）</t>
   </si>
 </sst>
 </file>
@@ -1227,9 +1258,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
@@ -2112,6 +2143,28 @@
       </c>
       <c r="C79" s="8" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="27">
+      <c r="A80" s="6">
+        <v>44635</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="27">
+      <c r="A81" s="6">
+        <v>44636</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2154,18 +2207,20 @@
     <hyperlink ref="B77" r:id="rId32" xr:uid="{D6055201-EFE9-4C67-90F7-1731202A336F}"/>
     <hyperlink ref="B78" r:id="rId33" xr:uid="{4913CFE3-CA1A-4507-B868-E64C2CCB96DD}"/>
     <hyperlink ref="B79" r:id="rId34" xr:uid="{30B9BBFA-62DF-4EB8-9BF9-C099F65F3680}"/>
+    <hyperlink ref="B80" r:id="rId35" xr:uid="{083D3AEE-C8B4-4246-89D8-9E1706C82075}"/>
+    <hyperlink ref="B81" r:id="rId36" xr:uid="{560A9568-F783-4251-BE73-ED327E370664}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2196,10 +2251,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2207,10 +2262,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2218,10 +2273,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2229,10 +2284,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2240,10 +2295,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2251,10 +2306,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2262,10 +2317,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2273,10 +2328,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2284,10 +2339,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2295,10 +2350,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2306,10 +2361,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2317,10 +2372,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2328,10 +2383,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2339,10 +2394,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2350,10 +2405,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2361,10 +2416,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2372,10 +2427,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2383,10 +2438,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2394,10 +2449,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2405,10 +2460,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2416,10 +2471,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2427,10 +2482,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2438,10 +2493,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2449,10 +2504,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2460,10 +2515,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2471,10 +2526,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2482,10 +2537,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2493,10 +2548,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2504,10 +2559,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2515,10 +2570,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2526,10 +2581,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2537,10 +2592,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2548,10 +2603,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2559,10 +2614,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2570,10 +2625,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2581,10 +2636,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2592,10 +2647,43 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75">
+      <c r="A39" s="6">
+        <v>44635</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27">
+      <c r="A40" s="6">
+        <v>44636</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="27">
+      <c r="A41" s="6">
+        <v>44637</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2623,16 +2711,22 @@
     <hyperlink ref="B36" r:id="rId17" xr:uid="{1BAB2C56-07F9-4AD8-B256-D126C4E4411E}"/>
     <hyperlink ref="B37" r:id="rId18" xr:uid="{7C67AD4C-EEE0-4C9B-88F8-319AFE588E2B}"/>
     <hyperlink ref="B38" r:id="rId19" xr:uid="{36F55159-0797-4370-87D5-E8C6AFF6A280}"/>
+    <hyperlink ref="B39" r:id="rId20" xr:uid="{34F6C2BE-A157-47E5-90B1-0010AF6F811B}"/>
+    <hyperlink ref="B40" r:id="rId21" xr:uid="{F106583A-6982-4E9F-9714-FDAB076C3AA8}"/>
+    <hyperlink ref="B41" r:id="rId22" xr:uid="{DB3CE6E6-47BC-4602-9197-1651060E478B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2859,16 +2953,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2876,5 +2967,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7443BACF-B91F-45DA-9B27-9FE9607F5C9B}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5690E09-8B91-43B4-8EBC-06C15F9B2EE7}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="239">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -527,6 +527,9 @@
     <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第3回会合を開催しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/posts/c54jv0Ha</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,6 +800,12 @@
   </si>
   <si>
     <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第3回）（令和4年3月17日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/njIUKu30</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第6回）（令和4年3月18日開催）</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2165,6 +2174,17 @@
       </c>
       <c r="C81" s="8" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="27">
+      <c r="A82" s="6">
+        <v>44638</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2209,18 +2229,19 @@
     <hyperlink ref="B79" r:id="rId34" xr:uid="{30B9BBFA-62DF-4EB8-9BF9-C099F65F3680}"/>
     <hyperlink ref="B80" r:id="rId35" xr:uid="{083D3AEE-C8B4-4246-89D8-9E1706C82075}"/>
     <hyperlink ref="B81" r:id="rId36" xr:uid="{560A9568-F783-4251-BE73-ED327E370664}"/>
+    <hyperlink ref="B82" r:id="rId37" xr:uid="{9D70D2AA-D39C-40F0-B745-C67AB43CE12D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2251,10 +2272,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2262,10 +2283,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2273,10 +2294,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2284,10 +2305,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2295,10 +2316,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2306,10 +2327,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2317,10 +2338,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2328,10 +2349,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2339,10 +2360,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2350,10 +2371,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2361,10 +2382,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2372,10 +2393,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2383,10 +2404,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2394,10 +2415,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2405,10 +2426,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2416,10 +2437,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2427,10 +2448,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2438,10 +2459,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2449,10 +2470,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2460,10 +2481,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2471,10 +2492,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2482,10 +2503,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2493,10 +2514,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2504,10 +2525,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2515,10 +2536,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2526,10 +2547,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2537,10 +2558,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2548,10 +2569,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2559,10 +2580,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2570,10 +2591,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2581,10 +2602,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2592,10 +2613,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2603,10 +2624,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2614,10 +2635,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2625,10 +2646,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2636,10 +2657,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2647,10 +2668,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2658,10 +2679,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2669,10 +2690,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2680,10 +2701,21 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75">
+      <c r="A42" s="6">
+        <v>44638</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2714,22 +2746,14 @@
     <hyperlink ref="B39" r:id="rId20" xr:uid="{34F6C2BE-A157-47E5-90B1-0010AF6F811B}"/>
     <hyperlink ref="B40" r:id="rId21" xr:uid="{F106583A-6982-4E9F-9714-FDAB076C3AA8}"/>
     <hyperlink ref="B41" r:id="rId22" xr:uid="{DB3CE6E6-47BC-4602-9197-1651060E478B}"/>
+    <hyperlink ref="B42" r:id="rId23" xr:uid="{B0BADEF8-6342-4C69-AB88-03EACCA9A86C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2952,6 +2976,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2959,11 +2992,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5690E09-8B91-43B4-8EBC-06C15F9B2EE7}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552EF952-F09A-4B54-A99C-CBF4C12805A9}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="243">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -806,6 +806,18 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会作業部会（第6回）（令和4年3月18日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/2vm5Wdbk</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第7回）（令和4年3月22日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/meeting/posts/LSMfoLzU</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第7回）（令和4年3月23日開催）</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showGridLines="0" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2186,6 +2198,12 @@
       <c r="C82" s="8" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:3" ht="18.75">
+      <c r="B84" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
@@ -2238,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2716,6 +2734,28 @@
       </c>
       <c r="C42" s="8" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75">
+      <c r="A43" s="6">
+        <v>44642</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75">
+      <c r="A44" s="6">
+        <v>44643</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2747,13 +2787,30 @@
     <hyperlink ref="B40" r:id="rId21" xr:uid="{F106583A-6982-4E9F-9714-FDAB076C3AA8}"/>
     <hyperlink ref="B41" r:id="rId22" xr:uid="{DB3CE6E6-47BC-4602-9197-1651060E478B}"/>
     <hyperlink ref="B42" r:id="rId23" xr:uid="{B0BADEF8-6342-4C69-AB88-03EACCA9A86C}"/>
+    <hyperlink ref="B43" r:id="rId24" xr:uid="{5CE97F06-DB00-4FDB-905C-0A8C062C941E}"/>
+    <hyperlink ref="B44" r:id="rId25" xr:uid="{33045B92-077E-4ED9-9DFE-EB829C94462E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -2976,23 +3033,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3000,5 +3042,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552EF952-F09A-4B54-A99C-CBF4C12805A9}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1F819D-6614-44E1-B5DD-8E6527951E61}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="244">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/c54jv0Ha</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/VuHwzlAG</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1281,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2200,7 +2203,15 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="18.75">
-      <c r="B83" s="12"/>
+      <c r="A83" s="6">
+        <v>44645</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="18.75">
       <c r="B84" s="12"/>
@@ -2248,9 +2259,10 @@
     <hyperlink ref="B80" r:id="rId35" xr:uid="{083D3AEE-C8B4-4246-89D8-9E1706C82075}"/>
     <hyperlink ref="B81" r:id="rId36" xr:uid="{560A9568-F783-4251-BE73-ED327E370664}"/>
     <hyperlink ref="B82" r:id="rId37" xr:uid="{9D70D2AA-D39C-40F0-B745-C67AB43CE12D}"/>
+    <hyperlink ref="B83" r:id="rId38" xr:uid="{0E994AA5-85B8-4AE6-B12E-20F1DF262410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -2258,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -2290,10 +2302,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2301,10 +2313,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2312,10 +2324,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2323,10 +2335,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2334,10 +2346,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2345,10 +2357,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2356,10 +2368,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2367,10 +2379,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2378,10 +2390,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2389,10 +2401,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2400,10 +2412,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2411,10 +2423,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2422,10 +2434,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2433,10 +2445,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2444,10 +2456,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2455,10 +2467,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2466,10 +2478,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2477,10 +2489,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2488,10 +2500,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2499,10 +2511,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2510,10 +2522,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2521,10 +2533,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2532,10 +2544,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2543,10 +2555,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2554,10 +2566,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2565,10 +2577,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2576,10 +2588,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2587,10 +2599,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2598,10 +2610,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2609,10 +2621,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2620,10 +2632,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2631,10 +2643,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2642,10 +2654,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2653,10 +2665,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2664,10 +2676,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2675,10 +2687,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2686,10 +2698,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2697,10 +2709,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2708,10 +2720,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2719,10 +2731,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2730,10 +2742,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2741,10 +2753,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2752,10 +2764,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2802,15 +2814,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3033,14 +3036,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1F819D-6614-44E1-B5DD-8E6527951E61}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54D9F660-88EC-43DF-A04F-A48BE052D269}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="245">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>https://www.digital.go.jp/posts/VuHwzlAG</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/posts/bj-XD6R2</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1285,7 +1288,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2214,7 +2217,15 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75">
-      <c r="B84" s="12"/>
+      <c r="A84" s="6">
+        <v>44649</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
@@ -2260,9 +2271,10 @@
     <hyperlink ref="B81" r:id="rId36" xr:uid="{560A9568-F783-4251-BE73-ED327E370664}"/>
     <hyperlink ref="B82" r:id="rId37" xr:uid="{9D70D2AA-D39C-40F0-B745-C67AB43CE12D}"/>
     <hyperlink ref="B83" r:id="rId38" xr:uid="{0E994AA5-85B8-4AE6-B12E-20F1DF262410}"/>
+    <hyperlink ref="B84" r:id="rId39" xr:uid="{40321F3D-58C5-400A-9624-CB1B9B308D0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -2302,10 +2314,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2313,10 +2325,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2324,10 +2336,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2335,10 +2347,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2346,10 +2358,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2357,10 +2369,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2368,10 +2380,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2379,10 +2391,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2390,10 +2402,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2401,10 +2413,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2412,10 +2424,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2423,10 +2435,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2434,10 +2446,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2445,10 +2457,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2456,10 +2468,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2467,10 +2479,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2478,10 +2490,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2489,10 +2501,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2500,10 +2512,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2511,10 +2523,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2522,10 +2534,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2533,10 +2545,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2544,10 +2556,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2555,10 +2567,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2566,10 +2578,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2577,10 +2589,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2588,10 +2600,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2599,10 +2611,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2610,10 +2622,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2621,10 +2633,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2632,10 +2644,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2643,10 +2655,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2654,10 +2666,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2665,10 +2677,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2676,10 +2688,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2687,10 +2699,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2698,10 +2710,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2709,10 +2721,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2720,10 +2732,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2731,10 +2743,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2742,10 +2754,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2753,10 +2765,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2764,10 +2776,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2808,9 +2820,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3037,16 +3052,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3054,5 +3066,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54D9F660-88EC-43DF-A04F-A48BE052D269}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1FF02AD-7553-49AF-8B72-30C2C86E2580}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="253">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -533,7 +533,31 @@
     <t>https://www.digital.go.jp/posts/VuHwzlAG</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/policies/registration_information_system/</t>
+  </si>
+  <si>
+    <t>登記情報システムに係るプロジェクトの推進</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/posts/bj-XD6R2</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/77bcb85a-52bb-4f82-b8d1-568b310b77a7/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会（第3回）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/policies/data_strategy_government_interoperability_framework/</t>
+  </si>
+  <si>
+    <t>政府相互運用性フレームワーク（GIF）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/e840c89b-67f8-4199-8250-06c55d344101/</t>
+  </si>
+  <si>
+    <t>「デジタルを活用する未来に向けて」を制作しました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1285,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2224,7 +2248,51 @@
         <v>159</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75">
+      <c r="A85" s="6">
+        <v>44649</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75">
+      <c r="A86" s="6">
+        <v>44650</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75">
+      <c r="A87" s="6">
+        <v>44650</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75">
+      <c r="A88" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2271,19 +2339,23 @@
     <hyperlink ref="B81" r:id="rId36" xr:uid="{560A9568-F783-4251-BE73-ED327E370664}"/>
     <hyperlink ref="B82" r:id="rId37" xr:uid="{9D70D2AA-D39C-40F0-B745-C67AB43CE12D}"/>
     <hyperlink ref="B83" r:id="rId38" xr:uid="{0E994AA5-85B8-4AE6-B12E-20F1DF262410}"/>
-    <hyperlink ref="B84" r:id="rId39" xr:uid="{40321F3D-58C5-400A-9624-CB1B9B308D0E}"/>
+    <hyperlink ref="B85" r:id="rId39" xr:uid="{9E87D174-AD3C-4BCC-8FE6-2DB57F2C127C}"/>
+    <hyperlink ref="B84" r:id="rId40" xr:uid="{EDFBB5A3-3F5E-469C-AD79-B4D4CEC3A344}"/>
+    <hyperlink ref="B86" r:id="rId41" xr:uid="{C7C55351-4284-4774-9606-E319E8BB93F2}"/>
+    <hyperlink ref="B87" r:id="rId42" xr:uid="{167BAC43-34EE-410F-A2F6-A7223295D88F}"/>
+    <hyperlink ref="B88" r:id="rId43" xr:uid="{CFA7E6BC-00DF-4113-B8E8-8CCADB16754F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2314,10 +2386,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2325,10 +2397,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2336,10 +2408,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2347,10 +2419,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2358,10 +2430,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2369,10 +2441,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2380,10 +2452,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2391,10 +2463,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2402,10 +2474,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2413,10 +2485,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2424,10 +2496,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2435,10 +2507,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2446,10 +2518,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2457,10 +2529,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2468,10 +2540,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2479,10 +2551,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2490,10 +2562,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2501,10 +2573,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2512,10 +2584,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2523,10 +2595,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2534,10 +2606,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2545,10 +2617,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2556,10 +2628,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2567,10 +2639,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2578,10 +2650,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2589,10 +2661,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2600,10 +2672,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2611,10 +2683,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2622,10 +2694,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2633,10 +2705,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2644,10 +2716,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2655,10 +2727,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2666,10 +2738,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2677,10 +2749,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2688,10 +2760,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2699,10 +2771,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2710,10 +2782,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2721,10 +2793,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2732,10 +2804,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2743,10 +2815,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2754,10 +2826,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2765,10 +2837,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2776,10 +2848,21 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75">
+      <c r="A45" s="6">
+        <v>44650</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2813,22 +2896,14 @@
     <hyperlink ref="B42" r:id="rId23" xr:uid="{B0BADEF8-6342-4C69-AB88-03EACCA9A86C}"/>
     <hyperlink ref="B43" r:id="rId24" xr:uid="{5CE97F06-DB00-4FDB-905C-0A8C062C941E}"/>
     <hyperlink ref="B44" r:id="rId25" xr:uid="{33045B92-077E-4ED9-9DFE-EB829C94462E}"/>
+    <hyperlink ref="B45" r:id="rId26" xr:uid="{AD92A20B-ED82-417C-AE80-D9F61425110F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3051,20 +3126,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1FF02AD-7553-49AF-8B72-30C2C86E2580}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA333A1-86A6-4EB5-A98D-074A6B4ED4D8}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="255">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>「デジタルを活用する未来に向けて」を制作しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/944c0d51-5e01-4e29-8360-2700ba51a882/</t>
+  </si>
+  <si>
+    <t>デジタル田園都市国家構想推進交付金（デジタル実装タイプTYPE2/3）の募集を開始しました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1309,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2293,6 +2299,17 @@
       </c>
       <c r="C88" s="8" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="27">
+      <c r="A89" s="6">
+        <v>44657</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2344,18 +2361,19 @@
     <hyperlink ref="B86" r:id="rId41" xr:uid="{C7C55351-4284-4774-9606-E319E8BB93F2}"/>
     <hyperlink ref="B87" r:id="rId42" xr:uid="{167BAC43-34EE-410F-A2F6-A7223295D88F}"/>
     <hyperlink ref="B88" r:id="rId43" xr:uid="{CFA7E6BC-00DF-4113-B8E8-8CCADB16754F}"/>
+    <hyperlink ref="B89" r:id="rId44" xr:uid="{5711F775-23E1-4D52-B741-2EDA602D6F32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2386,10 +2404,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2397,10 +2415,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2408,10 +2426,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2419,10 +2437,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2430,10 +2448,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2441,10 +2459,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2452,10 +2470,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2463,10 +2481,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2474,10 +2492,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2485,10 +2503,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2496,10 +2514,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2507,10 +2525,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2518,10 +2536,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2529,10 +2547,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2540,10 +2558,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2551,10 +2569,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2562,10 +2580,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2573,10 +2591,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2584,10 +2602,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2595,10 +2613,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2606,10 +2624,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2617,10 +2635,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2628,10 +2646,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2639,10 +2657,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2650,10 +2668,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2661,10 +2679,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2672,10 +2690,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2683,10 +2701,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2694,10 +2712,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2705,10 +2723,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2716,10 +2734,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2727,10 +2745,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2738,10 +2756,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2749,10 +2767,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2760,10 +2778,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2771,10 +2789,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2782,10 +2800,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2793,10 +2811,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2804,10 +2822,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2815,10 +2833,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2826,10 +2844,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2837,10 +2855,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2848,10 +2866,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -2864,6 +2882,9 @@
       <c r="C45" s="8" t="s">
         <v>163</v>
       </c>
+    </row>
+    <row r="46" spans="1:3" ht="21" customHeight="1">
+      <c r="B46" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
@@ -2904,6 +2925,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3126,23 +3162,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3150,5 +3171,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA333A1-86A6-4EB5-A98D-074A6B4ED4D8}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAE777D-0FEB-4D81-A463-E154257CF29F}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="257">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -854,6 +854,12 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会作業部会（第7回）（令和4年3月23日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/6b5f4e23-911b-4b36-a7e4-ceb114734ca0/</t>
+  </si>
+  <si>
+    <t>こどもに関する情報・データ連携 副大臣プロジェクトチーム（第3回）（令和4年4月7日開催）</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2372,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2883,8 +2889,16 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" customHeight="1">
-      <c r="B46" s="12"/>
+    <row r="46" spans="1:3" ht="26.25" customHeight="1">
+      <c r="A46" s="6">
+        <v>44658</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
@@ -2918,28 +2932,14 @@
     <hyperlink ref="B43" r:id="rId24" xr:uid="{5CE97F06-DB00-4FDB-905C-0A8C062C941E}"/>
     <hyperlink ref="B44" r:id="rId25" xr:uid="{33045B92-077E-4ED9-9DFE-EB829C94462E}"/>
     <hyperlink ref="B45" r:id="rId26" xr:uid="{AD92A20B-ED82-417C-AE80-D9F61425110F}"/>
+    <hyperlink ref="B46" r:id="rId27" xr:uid="{5284B78D-05D2-49C6-9BD6-4839E36ECBB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3162,8 +3162,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3171,5 +3186,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAE777D-0FEB-4D81-A463-E154257CF29F}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FC8C36-5ED8-4E8F-A04D-AC602670201D}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="269">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -566,6 +566,18 @@
     <t>デジタル田園都市国家構想推進交付金（デジタル実装タイプTYPE2/3）の募集を開始しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/979a182e-faab-4d5e-b220-46d013779c4a/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第4回会合を開催しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/25069dcd-79a9-4358-af38-a25ae592c2e2/</t>
+  </si>
+  <si>
+    <t>「マイナンバーカードの機能のスマートフォン搭載等に関する検討会」 第2次とりまとめが公表されています</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -860,6 +872,30 @@
   </si>
   <si>
     <t>こどもに関する情報・データ連携 副大臣プロジェクトチーム（第3回）（令和4年4月7日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/58c8d719-4cdd-429e-bc63-5358e498ed93/</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第8回）（令和4年4月8日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/</t>
+  </si>
+  <si>
+    <t>デジタル交通社会のありかたに関する研究会（第1回）（令和4年4月13日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/ee7c272f-084d-4e3f-b042-da94e150bb04/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム（第4回）（令和4年4月13日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/698fe447-2ae4-47f1-a948-896ffac46400/</t>
+  </si>
+  <si>
+    <t>第4回デジタル社会構想会議（令和4年4月14日開催）</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
@@ -2316,6 +2352,28 @@
       </c>
       <c r="C89" s="8" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="27">
+      <c r="A90" s="6">
+        <v>44664</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="27">
+      <c r="A91" s="6">
+        <v>44666</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2368,18 +2426,20 @@
     <hyperlink ref="B87" r:id="rId42" xr:uid="{167BAC43-34EE-410F-A2F6-A7223295D88F}"/>
     <hyperlink ref="B88" r:id="rId43" xr:uid="{CFA7E6BC-00DF-4113-B8E8-8CCADB16754F}"/>
     <hyperlink ref="B89" r:id="rId44" xr:uid="{5711F775-23E1-4D52-B741-2EDA602D6F32}"/>
+    <hyperlink ref="B90" r:id="rId45" xr:uid="{F8B9A1C2-B156-44BD-B384-97EC6D39AD3F}"/>
+    <hyperlink ref="B91" r:id="rId46" xr:uid="{0AD3B8A7-ABF3-4BAF-B5F8-D7D9BC4AB980}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId47"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2410,10 +2470,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2421,10 +2481,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2432,10 +2492,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2443,10 +2503,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2454,10 +2514,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2465,10 +2525,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2476,10 +2536,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2487,10 +2547,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2498,10 +2558,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2509,10 +2569,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2520,10 +2580,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2531,10 +2591,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2542,10 +2602,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2553,10 +2613,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2564,10 +2624,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2575,10 +2635,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2586,10 +2646,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2597,10 +2657,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2608,10 +2668,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2619,10 +2679,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2630,10 +2690,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2641,10 +2701,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2652,10 +2712,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2663,10 +2723,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2674,10 +2734,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2685,10 +2745,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2696,10 +2756,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2707,10 +2767,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2718,10 +2778,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2729,10 +2789,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2740,10 +2800,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2751,10 +2811,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2762,10 +2822,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2773,10 +2833,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2784,10 +2844,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2795,10 +2855,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2806,10 +2866,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2817,10 +2877,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2828,10 +2888,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2839,10 +2899,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2850,10 +2910,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2861,10 +2921,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2872,10 +2932,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -2894,10 +2954,54 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75">
+      <c r="A47" s="6">
+        <v>44659</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="22.5">
+      <c r="A48" s="6">
+        <v>44664</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="27">
+      <c r="A49" s="6">
+        <v>44664</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75">
+      <c r="A50" s="6">
+        <v>44665</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2933,13 +3037,26 @@
     <hyperlink ref="B44" r:id="rId25" xr:uid="{33045B92-077E-4ED9-9DFE-EB829C94462E}"/>
     <hyperlink ref="B45" r:id="rId26" xr:uid="{AD92A20B-ED82-417C-AE80-D9F61425110F}"/>
     <hyperlink ref="B46" r:id="rId27" xr:uid="{5284B78D-05D2-49C6-9BD6-4839E36ECBB4}"/>
+    <hyperlink ref="B47" r:id="rId28" xr:uid="{16075B9A-A730-4801-A8EC-94EC3FE8E609}"/>
+    <hyperlink ref="B49" r:id="rId29" xr:uid="{10C3CBF9-D84C-4E87-BF10-B3EABC632442}"/>
+    <hyperlink ref="B50" r:id="rId30" xr:uid="{E1233796-BF4E-4CF6-8D02-CF2DCFC97278}"/>
+    <hyperlink ref="B48" r:id="rId31" xr:uid="{C50D5C45-E75F-42C7-913E-D8E4266388F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3162,29 +3279,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FC8C36-5ED8-4E8F-A04D-AC602670201D}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7683A8-EFF6-4C1C-8DB1-95A6C0059B02}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="271">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>「マイナンバーカードの機能のスマートフォン搭載等に関する検討会」 第2次とりまとめが公表されています</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/a1833f39-e7e9-47a5-bf31-848e29dde011/</t>
+  </si>
+  <si>
+    <t>「デジタル社会の実現に向けた重点計画」の改定に向けてご意見を募集します</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1357,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2374,6 +2380,17 @@
       </c>
       <c r="C91" s="8" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75">
+      <c r="A92" s="6">
+        <v>44666</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2428,9 +2445,10 @@
     <hyperlink ref="B89" r:id="rId44" xr:uid="{5711F775-23E1-4D52-B741-2EDA602D6F32}"/>
     <hyperlink ref="B90" r:id="rId45" xr:uid="{F8B9A1C2-B156-44BD-B384-97EC6D39AD3F}"/>
     <hyperlink ref="B91" r:id="rId46" xr:uid="{0AD3B8A7-ABF3-4BAF-B5F8-D7D9BC4AB980}"/>
+    <hyperlink ref="B92" r:id="rId47" xr:uid="{C34E1C5D-C266-4571-9CB7-FFB8BFEA84B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -2438,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -2470,10 +2488,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2481,10 +2499,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2492,10 +2510,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2503,10 +2521,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2514,10 +2532,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2525,10 +2543,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2536,10 +2554,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2547,10 +2565,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2558,10 +2576,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2569,10 +2587,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2580,10 +2598,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2591,10 +2609,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2602,10 +2620,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2613,10 +2631,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2624,10 +2642,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2635,10 +2653,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2646,10 +2664,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2657,10 +2675,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2668,10 +2686,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2679,10 +2697,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2690,10 +2708,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2701,10 +2719,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2712,10 +2730,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2723,10 +2741,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2734,10 +2752,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2745,10 +2763,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2756,10 +2774,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2767,10 +2785,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2778,10 +2796,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2789,10 +2807,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2800,10 +2818,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2811,10 +2829,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2822,10 +2840,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2833,10 +2851,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2844,10 +2862,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2855,10 +2873,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2866,10 +2884,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2877,10 +2895,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2888,10 +2906,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2899,10 +2917,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2910,10 +2928,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2921,10 +2939,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2932,10 +2950,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -2954,10 +2972,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -2965,10 +2983,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -2976,10 +2994,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -2987,10 +3005,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -2998,10 +3016,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3048,12 +3066,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3280,13 +3295,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3294,5 +3312,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7683A8-EFF6-4C1C-8DB1-95A6C0059B02}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B3D8A2B-06FF-4715-AEEE-409E1F149820}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="277">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -584,6 +584,12 @@
     <t>「デジタル社会の実現に向けた重点計画」の改定に向けてご意見を募集します</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/07a0830c-02ab-456c-a4a4-8c95a4ec9e5c/</t>
+  </si>
+  <si>
+    <t>カシス・スイス連邦大統領兼外務大臣と意見交換を行いました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -902,6 +908,18 @@
   </si>
   <si>
     <t>第4回デジタル社会構想会議（令和4年4月14日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/6e67a5a6-01cd-480b-babb-1811d7b94899/</t>
+  </si>
+  <si>
+    <t>第3回デジタル社会推進会議幹事会（令和4年4月20日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/43f45a07-a16d-4df2-947f-76fd89ca216d/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第8回）（令和4年4月20日開催）</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2391,6 +2409,17 @@
       </c>
       <c r="C92" s="8" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75">
+      <c r="A93" s="6">
+        <v>44670</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2446,18 +2475,19 @@
     <hyperlink ref="B90" r:id="rId45" xr:uid="{F8B9A1C2-B156-44BD-B384-97EC6D39AD3F}"/>
     <hyperlink ref="B91" r:id="rId46" xr:uid="{0AD3B8A7-ABF3-4BAF-B5F8-D7D9BC4AB980}"/>
     <hyperlink ref="B92" r:id="rId47" xr:uid="{C34E1C5D-C266-4571-9CB7-FFB8BFEA84B7}"/>
+    <hyperlink ref="B93" r:id="rId48" xr:uid="{E7E9388B-2D15-4383-BC5C-C4680A00F887}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId49"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2488,10 +2518,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2499,10 +2529,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2510,10 +2540,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2521,10 +2551,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2532,10 +2562,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2543,10 +2573,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2554,10 +2584,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2565,10 +2595,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2576,10 +2606,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2587,10 +2617,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2598,10 +2628,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2609,10 +2639,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2620,10 +2650,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2631,10 +2661,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2642,10 +2672,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2653,10 +2683,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2664,10 +2694,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2675,10 +2705,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2686,10 +2716,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2697,10 +2727,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2708,10 +2738,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2719,10 +2749,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2730,10 +2760,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2741,10 +2771,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2752,10 +2782,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2763,10 +2793,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2774,10 +2804,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2785,10 +2815,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2796,10 +2826,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2807,10 +2837,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2818,10 +2848,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2829,10 +2859,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2840,10 +2870,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2851,10 +2881,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2862,10 +2892,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2873,10 +2903,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2884,10 +2914,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2895,10 +2925,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2906,10 +2936,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2917,10 +2947,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2928,10 +2958,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2939,10 +2969,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2950,10 +2980,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -2972,10 +3002,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -2983,10 +3013,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -2994,10 +3024,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3005,10 +3035,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3016,10 +3046,32 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75">
+      <c r="A51" s="6">
+        <v>44671</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75">
+      <c r="A52" s="6">
+        <v>44671</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3059,19 +3111,15 @@
     <hyperlink ref="B49" r:id="rId29" xr:uid="{10C3CBF9-D84C-4E87-BF10-B3EABC632442}"/>
     <hyperlink ref="B50" r:id="rId30" xr:uid="{E1233796-BF4E-4CF6-8D02-CF2DCFC97278}"/>
     <hyperlink ref="B48" r:id="rId31" xr:uid="{C50D5C45-E75F-42C7-913E-D8E4266388F9}"/>
+    <hyperlink ref="B51" r:id="rId32" xr:uid="{11E4563C-4B2F-45B2-986F-57E10B6ACF30}"/>
+    <hyperlink ref="B52" r:id="rId33" xr:uid="{BD502747-7B72-40B2-A327-06E57CC32757}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3294,7 +3342,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3303,14 +3351,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B3D8A2B-06FF-4715-AEEE-409E1F149820}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3793CB52-DB80-4134-980F-31499F8BA392}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>カシス・スイス連邦大統領兼外務大臣と意見交換を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/KgQ8ac8h/</t>
+  </si>
+  <si>
+    <t>ベース・レジストリのパイロット事業における実証サイトの公開を開始しました</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1381,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2421,6 +2427,20 @@
       <c r="C93" s="8" t="s">
         <v>177</v>
       </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75">
+      <c r="A94" s="6">
+        <v>44673</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75">
+      <c r="B95" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
@@ -2476,9 +2496,10 @@
     <hyperlink ref="B91" r:id="rId46" xr:uid="{0AD3B8A7-ABF3-4BAF-B5F8-D7D9BC4AB980}"/>
     <hyperlink ref="B92" r:id="rId47" xr:uid="{C34E1C5D-C266-4571-9CB7-FFB8BFEA84B7}"/>
     <hyperlink ref="B93" r:id="rId48" xr:uid="{E7E9388B-2D15-4383-BC5C-C4680A00F887}"/>
+    <hyperlink ref="B94" r:id="rId49" xr:uid="{3B6A0BFB-F831-4AE0-B8F6-E103B6CAEE06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -2486,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -2518,10 +2539,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2529,10 +2550,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2540,10 +2561,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2551,10 +2572,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2562,10 +2583,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2573,10 +2594,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2584,10 +2605,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2595,10 +2616,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2606,10 +2627,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2617,10 +2638,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2628,10 +2649,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2639,10 +2660,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2650,10 +2671,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2661,10 +2682,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2672,10 +2693,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2683,10 +2704,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2694,10 +2715,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2705,10 +2726,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2716,10 +2737,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2727,10 +2748,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2738,10 +2759,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2749,10 +2770,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2760,10 +2781,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2771,10 +2792,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2782,10 +2803,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2793,10 +2814,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2804,10 +2825,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2815,10 +2836,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2826,10 +2847,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2837,10 +2858,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2848,10 +2869,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2859,10 +2880,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2870,10 +2891,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2881,10 +2902,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2892,10 +2913,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2903,10 +2924,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2914,10 +2935,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2925,10 +2946,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2936,10 +2957,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2947,10 +2968,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2958,10 +2979,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2969,10 +2990,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -2980,10 +3001,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3002,10 +3023,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3013,10 +3034,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3024,10 +3045,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3035,10 +3056,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3046,10 +3067,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3057,10 +3078,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3068,10 +3089,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3120,6 +3141,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3342,7 +3369,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3351,20 +3378,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3793CB52-DB80-4134-980F-31499F8BA392}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F3D023-5810-4860-AA5C-F20CD72C76FD}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -926,6 +926,12 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会作業部会（第8回）（令和4年4月20日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/f00c5ffd-b9b4-431c-b2fc-a593bbda6c8f/</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第9回）（令和4年4月25日開催）</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -2505,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3093,6 +3099,17 @@
       </c>
       <c r="C52" s="8" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75">
+      <c r="A53" s="6">
+        <v>44676</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3134,9 +3151,10 @@
     <hyperlink ref="B48" r:id="rId31" xr:uid="{C50D5C45-E75F-42C7-913E-D8E4266388F9}"/>
     <hyperlink ref="B51" r:id="rId32" xr:uid="{11E4563C-4B2F-45B2-986F-57E10B6ACF30}"/>
     <hyperlink ref="B52" r:id="rId33" xr:uid="{BD502747-7B72-40B2-A327-06E57CC32757}"/>
+    <hyperlink ref="B53" r:id="rId34" xr:uid="{B9604E71-3256-4B8A-A599-661BF9F14593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -3147,6 +3165,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3369,23 +3396,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F3D023-5810-4860-AA5C-F20CD72C76FD}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91204CB4-0F97-406F-9F51-22FB7172821B}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="287">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -596,6 +596,18 @@
     <t>ベース・レジストリのパイロット事業における実証サイトの公開を開始しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/e2c690f8-289a-45a4-8330-77297245945f/</t>
+  </si>
+  <si>
+    <t>デジタル推進委員に関する青年経済団体への先行的協力依頼を実施しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/c47ebac8-db98-4a50-a870-14f9993879d0/</t>
+  </si>
+  <si>
+    <t>日英デジタル・グループを立ち上げました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -932,6 +944,12 @@
   </si>
   <si>
     <t>トラストを確保したDX推進サブワーキンググループ（第9回）（令和4年4月25日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/877856c8-3dbc-40e6-97d9-85699c55b265/</t>
+  </si>
+  <si>
+    <t>デジタル交通社会のありかたに関する研究会（第2回）（令和4年4月27日開催）</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2446,7 +2464,26 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="18.75">
-      <c r="B95" s="12"/>
+      <c r="A95" s="6">
+        <v>44678</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.75">
+      <c r="A96" s="6">
+        <v>44685</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
@@ -2503,18 +2540,20 @@
     <hyperlink ref="B92" r:id="rId47" xr:uid="{C34E1C5D-C266-4571-9CB7-FFB8BFEA84B7}"/>
     <hyperlink ref="B93" r:id="rId48" xr:uid="{E7E9388B-2D15-4383-BC5C-C4680A00F887}"/>
     <hyperlink ref="B94" r:id="rId49" xr:uid="{3B6A0BFB-F831-4AE0-B8F6-E103B6CAEE06}"/>
+    <hyperlink ref="B95" r:id="rId50" xr:uid="{100F9318-5F0D-49B2-A3D9-2B8A4ACC1E27}"/>
+    <hyperlink ref="B96" r:id="rId51" xr:uid="{1D0D4F95-E770-4A58-AB97-DB3DA7522721}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId52"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2545,10 +2584,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2556,10 +2595,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2567,10 +2606,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2578,10 +2617,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2589,10 +2628,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2600,10 +2639,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2611,10 +2650,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2622,10 +2661,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2633,10 +2672,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2644,10 +2683,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2655,10 +2694,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2666,10 +2705,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2677,10 +2716,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2688,10 +2727,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2699,10 +2738,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2710,10 +2749,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2721,10 +2760,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2732,10 +2771,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2743,10 +2782,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2754,10 +2793,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2765,10 +2804,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2776,10 +2815,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2787,10 +2826,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2798,10 +2837,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2809,10 +2848,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2820,10 +2859,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2831,10 +2870,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2842,10 +2881,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2853,10 +2892,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2864,10 +2903,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2875,10 +2914,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2886,10 +2925,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2897,10 +2936,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2908,10 +2947,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2919,10 +2958,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2930,10 +2969,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2941,10 +2980,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2952,10 +2991,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -2963,10 +3002,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -2974,10 +3013,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -2985,10 +3024,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -2996,10 +3035,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3007,10 +3046,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3029,10 +3068,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3040,10 +3079,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3051,10 +3090,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3062,10 +3101,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3073,10 +3112,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3084,10 +3123,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3095,10 +3134,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3106,10 +3145,21 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75">
+      <c r="A54" s="6">
+        <v>44678</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3152,30 +3202,16 @@
     <hyperlink ref="B51" r:id="rId32" xr:uid="{11E4563C-4B2F-45B2-986F-57E10B6ACF30}"/>
     <hyperlink ref="B52" r:id="rId33" xr:uid="{BD502747-7B72-40B2-A327-06E57CC32757}"/>
     <hyperlink ref="B53" r:id="rId34" xr:uid="{B9604E71-3256-4B8A-A599-661BF9F14593}"/>
+    <hyperlink ref="B54" r:id="rId35" xr:uid="{8DEE0C0E-F3F9-4A67-BD61-CDE3775BAACA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="68e39538a755b2745e00f3035bc79dc4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9513e2bbecd271070e5a573b76240a2e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
     <xsd:import namespace="51aa5701-5c89-4b18-ad02-d8592833e883"/>
     <xsd:element name="properties">
@@ -3197,6 +3233,8 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3266,6 +3304,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e33717ea-bcde-468e-bdb9-e6e0ac669728" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="51aa5701-5c89-4b18-ad02-d8592833e883" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3295,6 +3340,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4ab6a864-715a-4cdb-8fd3-1dcd74cb70df}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="51aa5701-5c89-4b18-ad02-d8592833e883">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -3396,8 +3452,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3405,5 +3481,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D90028C-B8E3-49D8-81C4-246282A96D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91204CB4-0F97-406F-9F51-22FB7172821B}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F300011-9D3C-41D9-A87D-CD6BD24B47D1}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="298">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -608,6 +608,34 @@
     <t>日英デジタル・グループを立ち上げました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/f24593e1-5fb6-4d4f-aeb8-243beb0a94ee/</t>
+  </si>
+  <si>
+    <t>スット・エストニア起業IT大臣とデジタル分野における協力覚書（MoC）の署名を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/6986eb8f-3e49-4239-9aee-4edf29869708/</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/0b302f8b-dc10-45e2-964f-9f9cac2808db/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牧島デジタル大臣がエストニア、フィンランド、ドイツへ出張しました
+</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/b530adc8-3af1-4d9f-af84-6f21af4067af/</t>
+  </si>
+  <si>
+    <t>EUとのデジタルパートナーシップが立ち上げられました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/a6d35d5d-c16b-4f09-a305-b5f6e9802552/</t>
+  </si>
+  <si>
+    <t>アドレス・ベース・レジストリの試験公開版についてご意見を募集します</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -950,6 +978,12 @@
   </si>
   <si>
     <t>デジタル交通社会のありかたに関する研究会（第2回）（令和4年4月27日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/3f042403-26a0-4b78-b773-1de7a8765ca5/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第9回）（令和4年5月12日開催）</t>
   </si>
 </sst>
 </file>
@@ -1411,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2483,6 +2517,72 @@
       </c>
       <c r="C96" s="8" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75">
+      <c r="A97" s="6">
+        <v>44687</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="40.5">
+      <c r="A98" s="6">
+        <v>44690</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="27">
+      <c r="A99" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75">
+      <c r="A100" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75">
+      <c r="A101" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.75">
+      <c r="A102" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2542,18 +2642,24 @@
     <hyperlink ref="B94" r:id="rId49" xr:uid="{3B6A0BFB-F831-4AE0-B8F6-E103B6CAEE06}"/>
     <hyperlink ref="B95" r:id="rId50" xr:uid="{100F9318-5F0D-49B2-A3D9-2B8A4ACC1E27}"/>
     <hyperlink ref="B96" r:id="rId51" xr:uid="{1D0D4F95-E770-4A58-AB97-DB3DA7522721}"/>
+    <hyperlink ref="B97" r:id="rId52" xr:uid="{2C40473C-5C3A-441A-B139-971311AC081C}"/>
+    <hyperlink ref="B98" r:id="rId53" xr:uid="{56EE27C6-C492-4F43-8BCD-E15014E422AC}"/>
+    <hyperlink ref="B99" r:id="rId54" xr:uid="{656BF37A-6A21-4F11-ADAD-10CB2493EB86}"/>
+    <hyperlink ref="B100" r:id="rId55" xr:uid="{3147502D-73E2-4E28-B8AC-E95683ED3AF0}"/>
+    <hyperlink ref="B101" r:id="rId56" xr:uid="{A7A145AD-8A08-4F80-B146-0F64C31A2C21}"/>
+    <hyperlink ref="B102" r:id="rId57" xr:uid="{6719F808-A370-43EA-81B7-9EC6635662FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId58"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2584,10 +2690,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2595,10 +2701,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2606,10 +2712,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2617,10 +2723,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2628,10 +2734,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2639,10 +2745,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2650,10 +2756,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2661,10 +2767,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2672,10 +2778,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2683,10 +2789,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2694,10 +2800,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2705,10 +2811,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2716,10 +2822,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2727,10 +2833,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2738,10 +2844,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2749,10 +2855,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2760,10 +2866,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2771,10 +2877,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2782,10 +2888,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2793,10 +2899,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2804,10 +2910,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2815,10 +2921,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2826,10 +2932,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2837,10 +2943,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2848,10 +2954,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2859,10 +2965,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2870,10 +2976,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2881,10 +2987,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2892,10 +2998,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -2903,10 +3009,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -2914,10 +3020,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -2925,10 +3031,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -2936,10 +3042,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -2947,10 +3053,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -2958,10 +3064,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -2969,10 +3075,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -2980,10 +3086,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -2991,10 +3097,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3002,10 +3108,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3013,10 +3119,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3024,10 +3130,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3035,10 +3141,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3046,10 +3152,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3068,10 +3174,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3079,10 +3185,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3090,10 +3196,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3101,10 +3207,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3112,10 +3218,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3123,10 +3229,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3134,10 +3240,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3145,10 +3251,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3156,10 +3262,21 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>286</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75">
+      <c r="A55" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3203,13 +3320,34 @@
     <hyperlink ref="B52" r:id="rId33" xr:uid="{BD502747-7B72-40B2-A327-06E57CC32757}"/>
     <hyperlink ref="B53" r:id="rId34" xr:uid="{B9604E71-3256-4B8A-A599-661BF9F14593}"/>
     <hyperlink ref="B54" r:id="rId35" xr:uid="{8DEE0C0E-F3F9-4A67-BD61-CDE3775BAACA}"/>
+    <hyperlink ref="B55" r:id="rId36" xr:uid="{BCDB5241-C220-45B6-8FE1-9F30BA579CDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3452,28 +3590,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3481,5 +3599,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F300011-9D3C-41D9-A87D-CD6BD24B47D1}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4EE0D36-0BD9-42D7-B795-A46E5217C91F}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="310">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -636,6 +636,18 @@
     <t>アドレス・ベース・レジストリの試験公開版についてご意見を募集します</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/9ed33277-5315-4dcf-9551-d49d1acaaae1/</t>
+  </si>
+  <si>
+    <t>自治体職員向け説明動画「デジタル田園都市におけるWell-Being指標の活用について」を掲載しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/f1aa61e1-2bd0-4943-899d-2a490b059bf5/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第5回会合を開催しました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,6 +996,30 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会作業部会（第9回）（令和4年5月12日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/67c1bfe0-5b2d-4c28-a7a1-5d864f72d1f1/</t>
+  </si>
+  <si>
+    <t>マイナンバー制度及び国と地方のデジタル基盤抜本改善ワーキンググループ（第4回）（令和4年5月13日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/a91f8fa3-2752-47d1-a135-f5408b607228/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム（第5回）（令和4年5月13日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/6675f020-7fdf-42bd-b0cd-029991d82495/</t>
+  </si>
+  <si>
+    <t>第5回デジタル社会構想会議（令和4年5月17日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/e617a8c6-f884-4fad-b27f-cc1cbba04982/</t>
+  </si>
+  <si>
+    <t>デジタル交通社会のありかたに関する研究会（第3回）（令和4年5月17日開催）</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView showGridLines="0" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2583,6 +2619,28 @@
       </c>
       <c r="C102" s="8" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="27">
+      <c r="A103" s="6">
+        <v>44694</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="27">
+      <c r="A104" s="6">
+        <v>44694</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2648,18 +2706,20 @@
     <hyperlink ref="B100" r:id="rId55" xr:uid="{3147502D-73E2-4E28-B8AC-E95683ED3AF0}"/>
     <hyperlink ref="B101" r:id="rId56" xr:uid="{A7A145AD-8A08-4F80-B146-0F64C31A2C21}"/>
     <hyperlink ref="B102" r:id="rId57" xr:uid="{6719F808-A370-43EA-81B7-9EC6635662FF}"/>
+    <hyperlink ref="B103" r:id="rId58" xr:uid="{A3E71483-F886-4AF5-ADFF-FD7C54FD6DDB}"/>
+    <hyperlink ref="B104" r:id="rId59" xr:uid="{BB6687AA-F11D-40DD-9E46-56555B895BA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId60"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2690,10 +2750,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2701,10 +2761,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2712,10 +2772,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2723,10 +2783,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2734,10 +2794,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2745,10 +2805,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2756,10 +2816,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2767,10 +2827,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2778,10 +2838,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2789,10 +2849,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2800,10 +2860,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2811,10 +2871,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2822,10 +2882,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2833,10 +2893,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2844,10 +2904,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2855,10 +2915,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2866,10 +2926,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2877,10 +2937,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2888,10 +2948,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2899,10 +2959,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2910,10 +2970,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2921,10 +2981,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2932,10 +2992,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -2943,10 +3003,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -2954,10 +3014,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -2965,10 +3025,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -2976,10 +3036,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -2987,10 +3047,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -2998,10 +3058,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3009,10 +3069,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3020,10 +3080,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3031,10 +3091,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3042,10 +3102,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3053,10 +3113,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3064,10 +3124,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3075,10 +3135,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3086,10 +3146,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3097,10 +3157,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3108,10 +3168,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3119,10 +3179,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3130,10 +3190,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3141,10 +3201,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3152,10 +3212,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3174,10 +3234,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3185,10 +3245,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3196,10 +3256,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3207,10 +3267,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3218,10 +3278,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3229,10 +3289,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3240,10 +3300,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3251,10 +3311,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3262,10 +3322,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3273,10 +3333,54 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="27">
+      <c r="A56" s="6">
+        <v>44694</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="27">
+      <c r="A57" s="6">
+        <v>44694</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75">
+      <c r="A58" s="6">
+        <v>44698</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75">
+      <c r="A59" s="6">
+        <v>44698</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3321,9 +3425,13 @@
     <hyperlink ref="B53" r:id="rId34" xr:uid="{B9604E71-3256-4B8A-A599-661BF9F14593}"/>
     <hyperlink ref="B54" r:id="rId35" xr:uid="{8DEE0C0E-F3F9-4A67-BD61-CDE3775BAACA}"/>
     <hyperlink ref="B55" r:id="rId36" xr:uid="{BCDB5241-C220-45B6-8FE1-9F30BA579CDC}"/>
+    <hyperlink ref="B56" r:id="rId37" xr:uid="{E47EC97C-E3D3-418C-9580-BAAE62A79654}"/>
+    <hyperlink ref="B57" r:id="rId38" xr:uid="{3700F9DB-D47E-4425-A354-05429EF59CEC}"/>
+    <hyperlink ref="B58" r:id="rId39" xr:uid="{C68E499E-027E-4B0E-9EA7-785D33C22D83}"/>
+    <hyperlink ref="B59" r:id="rId40" xr:uid="{0FC17398-74AB-445E-B456-4B06CD5ECE0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4EE0D36-0BD9-42D7-B795-A46E5217C91F}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F05DA5A-DB6D-47C4-805B-74603AA6FAFE}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="318">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -648,6 +648,12 @@
     <t>デジタル臨時行政調査会作業部会 法制事務のデジタル化検討チーム第5回会合を開催しました</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/413cacb4-d766-4424-a87e-080f648fe572/</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービス マイナポータルを通じた転出届・転入（転居）予約開始に向けた検討会及び検証等に協力いただける自治体を公募します</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1020,6 +1026,24 @@
   </si>
   <si>
     <t>デジタル交通社会のありかたに関する研究会（第3回）（令和4年5月17日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/9ed622da-02ca-466b-a79c-97169b556519/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第10回）（令和4年5月18日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/049f9c7d-aa69-4d4d-aa8f-e6a8ab79dc05/</t>
+  </si>
+  <si>
+    <t>トラストを確保したDX推進サブワーキンググループ（第10回）（令和4年5月20日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/c0adc86e-c148-490b-a538-34288bcd53f0/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会作業部会（第11回）（令和4年5月20日開催）</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView showGridLines="0" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2641,6 +2665,17 @@
       </c>
       <c r="C104" s="8" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="27">
+      <c r="A105" s="6">
+        <v>44701</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2708,18 +2743,19 @@
     <hyperlink ref="B102" r:id="rId57" xr:uid="{6719F808-A370-43EA-81B7-9EC6635662FF}"/>
     <hyperlink ref="B103" r:id="rId58" xr:uid="{A3E71483-F886-4AF5-ADFF-FD7C54FD6DDB}"/>
     <hyperlink ref="B104" r:id="rId59" xr:uid="{BB6687AA-F11D-40DD-9E46-56555B895BA3}"/>
+    <hyperlink ref="B105" r:id="rId60" xr:uid="{377E331A-17C8-4483-92B4-C7FE63AFEE7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId61"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2750,10 +2786,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2761,10 +2797,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2772,10 +2808,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2783,10 +2819,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2794,10 +2830,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2805,10 +2841,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2816,10 +2852,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2827,10 +2863,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2838,10 +2874,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2849,10 +2885,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2860,10 +2896,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2871,10 +2907,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2882,10 +2918,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2893,10 +2929,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2904,10 +2940,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2915,10 +2951,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2926,10 +2962,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2937,10 +2973,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2948,10 +2984,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2959,10 +2995,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -2970,10 +3006,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -2981,10 +3017,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -2992,10 +3028,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3003,10 +3039,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3014,10 +3050,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3025,10 +3061,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3036,10 +3072,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3047,10 +3083,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3058,10 +3094,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3069,10 +3105,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3080,10 +3116,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3091,10 +3127,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3102,10 +3138,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3113,10 +3149,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3124,10 +3160,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3135,10 +3171,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3146,10 +3182,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3157,10 +3193,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3168,10 +3204,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3179,10 +3215,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3190,10 +3226,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3201,10 +3237,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3212,10 +3248,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3234,10 +3270,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3245,10 +3281,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3256,10 +3292,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3267,10 +3303,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3278,10 +3314,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3289,10 +3325,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3300,10 +3336,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3311,10 +3347,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3322,10 +3358,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3333,10 +3369,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3344,10 +3380,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3355,10 +3391,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3366,10 +3402,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3377,10 +3413,43 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75">
+      <c r="A60" s="6">
+        <v>44699</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75">
+      <c r="A61" s="6">
+        <v>44701</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75">
+      <c r="A62" s="6">
+        <v>44701</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3429,24 +3498,16 @@
     <hyperlink ref="B57" r:id="rId38" xr:uid="{3700F9DB-D47E-4425-A354-05429EF59CEC}"/>
     <hyperlink ref="B58" r:id="rId39" xr:uid="{C68E499E-027E-4B0E-9EA7-785D33C22D83}"/>
     <hyperlink ref="B59" r:id="rId40" xr:uid="{0FC17398-74AB-445E-B456-4B06CD5ECE0D}"/>
+    <hyperlink ref="B60" r:id="rId41" xr:uid="{87C8DD1D-47A1-41AA-8C13-F3207E3CAFBC}"/>
+    <hyperlink ref="B61" r:id="rId42" xr:uid="{8B7BA1E9-04E3-42F2-ADDD-E651A345A3E4}"/>
+    <hyperlink ref="B62" r:id="rId43" xr:uid="{13606FA2-66D2-47F5-9FB2-1B5858D41A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3455,7 +3516,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3698,14 +3759,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F05DA5A-DB6D-47C4-805B-74603AA6FAFE}"/>
+  <xr:revisionPtr revIDLastSave="533" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB87EEFB-52DD-4BEB-8E7B-08DE9E2EA2DC}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="319">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>引越しワンストップサービス マイナポータルを通じた転出届・転入（転居）予約開始に向けた検討会及び検証等に協力いただける自治体を公募します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/ZYzU5DYY/</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1505,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2676,6 +2679,17 @@
       </c>
       <c r="C105" s="8" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18.75">
+      <c r="A106" s="6">
+        <v>44704</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2744,9 +2758,10 @@
     <hyperlink ref="B103" r:id="rId58" xr:uid="{A3E71483-F886-4AF5-ADFF-FD7C54FD6DDB}"/>
     <hyperlink ref="B104" r:id="rId59" xr:uid="{BB6687AA-F11D-40DD-9E46-56555B895BA3}"/>
     <hyperlink ref="B105" r:id="rId60" xr:uid="{377E331A-17C8-4483-92B4-C7FE63AFEE7A}"/>
+    <hyperlink ref="B106" r:id="rId61" xr:uid="{22D3D304-C660-4ACD-AB54-81B585B21FA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId62"/>
 </worksheet>
 </file>
 
@@ -2754,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -2786,10 +2801,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2797,10 +2812,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2808,10 +2823,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2819,10 +2834,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2830,10 +2845,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2841,10 +2856,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2852,10 +2867,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2863,10 +2878,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2874,10 +2889,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2885,10 +2900,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2896,10 +2911,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2907,10 +2922,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2918,10 +2933,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2929,10 +2944,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2940,10 +2955,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2951,10 +2966,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2962,10 +2977,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2973,10 +2988,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2984,10 +2999,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -2995,10 +3010,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3006,10 +3021,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3017,10 +3032,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3028,10 +3043,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3039,10 +3054,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3050,10 +3065,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3061,10 +3076,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3072,10 +3087,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3083,10 +3098,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3094,10 +3109,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3105,10 +3120,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3116,10 +3131,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3127,10 +3142,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3138,10 +3153,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3149,10 +3164,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3160,10 +3175,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3171,10 +3186,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3182,10 +3197,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3193,10 +3208,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3204,10 +3219,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3215,10 +3230,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3226,10 +3241,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3237,10 +3252,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3248,10 +3263,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3270,10 +3285,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3281,10 +3296,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3292,10 +3307,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3303,10 +3318,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3314,10 +3329,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3325,10 +3340,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3336,10 +3351,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3347,10 +3362,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3358,10 +3373,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3369,10 +3384,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3380,10 +3395,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3391,10 +3406,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3402,10 +3417,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3413,10 +3428,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3424,10 +3439,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3435,10 +3450,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3446,10 +3461,10 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3508,12 +3523,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3760,18 +3777,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3779,5 +3794,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB87EEFB-52DD-4BEB-8E7B-08DE9E2EA2DC}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{C27209A7-D8AC-4ECB-927F-2A6780CDF2CF}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="329">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -657,6 +657,30 @@
     <t>https://www.digital.go.jp/news/ZYzU5DYY/</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/95a68c6b-57d0-432e-9cd0-4eb48888618b/</t>
+  </si>
+  <si>
+    <t>情報通信技術を利用する方法による国の歳入等の納付に関する法律施行令案に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/4ff18f06-2b4c-454e-b317-825326686e47/</t>
+  </si>
+  <si>
+    <t>IPA（独立行政法人情報処理推進機構）から企業間の契約・決済についてプロジェクト成果物の経過報告を受けました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/ad6470b1-ef56-4381-9098-7069e16cf5f4/</t>
+  </si>
+  <si>
+    <t>シンガポール共和国・プットゥチェリーGovTech担当大臣とデジタル分野における協力覚書（MoC）の署名を行いました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/ec432ea1-22ac-4d2c-8b13-5418598e5cf6/</t>
+  </si>
+  <si>
+    <t>「デジタルの日」賛同企業・団体の申請受付を開始しました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1047,6 +1071,12 @@
   </si>
   <si>
     <t>デジタル臨時行政調査会作業部会（第11回）（令和4年5月20日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/09b85177-f603-4cfe-b88c-e7657a53de90/</t>
+  </si>
+  <si>
+    <t>デジタル交通社会のありかたに関する研究会（第4回）（令和4年5月27日開催）</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B102" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2690,6 +2720,61 @@
       </c>
       <c r="C106" s="8" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="27">
+      <c r="A107" s="6">
+        <v>44706</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18.75">
+      <c r="A108" s="6">
+        <v>44707</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="45">
+      <c r="A109" s="6">
+        <v>44707</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="45">
+      <c r="A110" s="6">
+        <v>44707</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18.75">
+      <c r="A111" s="6">
+        <v>44708</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2759,18 +2844,23 @@
     <hyperlink ref="B104" r:id="rId59" xr:uid="{BB6687AA-F11D-40DD-9E46-56555B895BA3}"/>
     <hyperlink ref="B105" r:id="rId60" xr:uid="{377E331A-17C8-4483-92B4-C7FE63AFEE7A}"/>
     <hyperlink ref="B106" r:id="rId61" xr:uid="{22D3D304-C660-4ACD-AB54-81B585B21FA1}"/>
+    <hyperlink ref="B107" r:id="rId62" xr:uid="{23548F23-8E83-4ED2-B683-61DD1648937C}"/>
+    <hyperlink ref="B108" r:id="rId63" xr:uid="{FF66C2D9-1112-4AD1-A125-60FD4FE0297D}"/>
+    <hyperlink ref="B109" r:id="rId64" xr:uid="{292079AE-7518-4EB4-9974-BCFC83662D08}"/>
+    <hyperlink ref="B110" r:id="rId65" xr:uid="{47A1350C-313F-4F43-8076-EE62D1DE9BEB}"/>
+    <hyperlink ref="B111" r:id="rId66" xr:uid="{5E8DB5EF-A918-470B-AA4B-A21BB347A780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId67"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B64" sqref="A64:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2801,10 +2891,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2812,10 +2902,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2823,10 +2913,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2834,10 +2924,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2845,10 +2935,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2856,10 +2946,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2867,10 +2957,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2878,10 +2968,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2889,10 +2979,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2900,10 +2990,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2911,10 +3001,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -2922,10 +3012,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2933,10 +3023,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -2944,10 +3034,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2955,10 +3045,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -2966,10 +3056,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2977,10 +3067,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2988,10 +3078,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2999,10 +3089,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -3010,10 +3100,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3021,10 +3111,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3032,10 +3122,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3043,10 +3133,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3054,10 +3144,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3065,10 +3155,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3076,10 +3166,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3087,10 +3177,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3098,10 +3188,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3109,10 +3199,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3120,10 +3210,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3131,10 +3221,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3142,10 +3232,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3153,10 +3243,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3164,10 +3254,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3175,10 +3265,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3186,10 +3276,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3197,10 +3287,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3208,10 +3298,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3219,10 +3309,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3230,10 +3320,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3241,10 +3331,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3252,10 +3342,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3263,10 +3353,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3285,10 +3375,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3296,10 +3386,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3307,10 +3397,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3318,10 +3408,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3329,10 +3419,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3340,10 +3430,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3351,10 +3441,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3362,10 +3452,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3373,10 +3463,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3384,10 +3474,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3395,10 +3485,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3406,10 +3496,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3417,10 +3507,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3428,10 +3518,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3439,10 +3529,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3450,10 +3540,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3461,11 +3551,25 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>318</v>
-      </c>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75">
+      <c r="A63" s="6">
+        <v>44708</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75">
+      <c r="B64" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
@@ -3516,24 +3620,14 @@
     <hyperlink ref="B60" r:id="rId41" xr:uid="{87C8DD1D-47A1-41AA-8C13-F3207E3CAFBC}"/>
     <hyperlink ref="B61" r:id="rId42" xr:uid="{8B7BA1E9-04E3-42F2-ADDD-E651A345A3E4}"/>
     <hyperlink ref="B62" r:id="rId43" xr:uid="{13606FA2-66D2-47F5-9FB2-1B5858D41A3F}"/>
+    <hyperlink ref="B63" r:id="rId44" xr:uid="{4E404BE4-9EE0-43F8-B12C-18FE3BF4794C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3776,6 +3870,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3786,11 +3891,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{C27209A7-D8AC-4ECB-927F-2A6780CDF2CF}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{107780E3-EB8C-4C23-86C3-2F0B000158FD}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="335">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -679,6 +679,24 @@
   </si>
   <si>
     <t>「デジタルの日」賛同企業・団体の申請受付を開始しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/58a5c6cc-e113-4f7d-9ecc-18c8c030b28a/</t>
+  </si>
+  <si>
+    <t>デジタル推進委員の募集開始イベントを実施しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/6e2c0808-cb65-42ba-a002-7869f3293558/</t>
+  </si>
+  <si>
+    <t>行政手続における特定の個人を識別するための番号の利用等に関する法律別表第一の主務省令で定める事務を定める命令の一部を改正する命令案に係る意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/69e96831-66b5-44b4-aaa9-394d32e5f204/</t>
+  </si>
+  <si>
+    <t>行政手続における特定の個人を識別するための番号の利用等に関する法律別表第二の主務省令で定める事務及び情報を定める命令の一部を改正する命令案に係る意見募集を行います</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1538,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2775,6 +2793,39 @@
       </c>
       <c r="C111" s="8" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18.75">
+      <c r="A112" s="6">
+        <v>44712</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="27">
+      <c r="A113" s="6">
+        <v>44713</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="40.5">
+      <c r="A114" s="6">
+        <v>44713</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2849,9 +2900,12 @@
     <hyperlink ref="B109" r:id="rId64" xr:uid="{292079AE-7518-4EB4-9974-BCFC83662D08}"/>
     <hyperlink ref="B110" r:id="rId65" xr:uid="{47A1350C-313F-4F43-8076-EE62D1DE9BEB}"/>
     <hyperlink ref="B111" r:id="rId66" xr:uid="{5E8DB5EF-A918-470B-AA4B-A21BB347A780}"/>
+    <hyperlink ref="B112" r:id="rId67" xr:uid="{6609DA41-7FC3-4F14-B32E-002E3D85A2DF}"/>
+    <hyperlink ref="B113" r:id="rId68" xr:uid="{4C02F0D8-B240-4ABA-BD19-3F558B59809B}"/>
+    <hyperlink ref="B114" r:id="rId69" xr:uid="{C9D05BA6-8451-43B1-B203-9D66A74D9193}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -2891,10 +2945,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2902,10 +2956,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2913,10 +2967,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2924,10 +2978,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2935,10 +2989,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -2946,10 +3000,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2957,10 +3011,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2968,10 +3022,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2979,10 +3033,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -2990,10 +3044,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -3001,10 +3055,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -3012,10 +3066,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3023,10 +3077,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -3034,10 +3088,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3045,10 +3099,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -3056,10 +3110,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3067,10 +3121,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3078,10 +3132,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3089,10 +3143,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -3100,10 +3154,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3111,10 +3165,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3122,10 +3176,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3133,10 +3187,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3144,10 +3198,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3155,10 +3209,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3166,10 +3220,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3177,10 +3231,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3188,10 +3242,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3199,10 +3253,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3210,10 +3264,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3221,10 +3275,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3232,10 +3286,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3243,10 +3297,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3254,10 +3308,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3265,10 +3319,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3276,10 +3330,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3287,10 +3341,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3298,10 +3352,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3309,10 +3363,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3320,10 +3374,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3331,10 +3385,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3342,10 +3396,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3353,10 +3407,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3375,10 +3429,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3386,10 +3440,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3397,10 +3451,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3408,10 +3462,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3419,10 +3473,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3430,10 +3484,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3441,10 +3495,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3452,10 +3506,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3463,10 +3517,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3474,10 +3528,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3485,10 +3539,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3496,10 +3550,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3507,10 +3561,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3518,10 +3572,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3529,10 +3583,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3540,10 +3594,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3551,10 +3605,10 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75">
@@ -3562,10 +3616,10 @@
         <v>44708</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75">
@@ -3628,6 +3682,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3870,34 +3944,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{107780E3-EB8C-4C23-86C3-2F0B000158FD}"/>
+  <xr:revisionPtr revIDLastSave="596" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{25620A0E-B2D7-4EA1-A12A-87FC0BC024C9}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="341">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -699,6 +699,12 @@
     <t>行政手続における特定の個人を識別するための番号の利用等に関する法律別表第二の主務省令で定める事務及び情報を定める命令の一部を改正する命令案に係る意見募集を行います</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/92557bc3-a962-40bb-8d01-6dfd8d37c7c0/</t>
+  </si>
+  <si>
+    <t>「デジタル社会の実現に向けた重点計画」デジタル庁アイデアボックスにお寄せいただいたご意見について公表します</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1095,6 +1101,19 @@
   </si>
   <si>
     <t>デジタル交通社会のありかたに関する研究会（第4回）（令和4年5月27日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/cb5865d2-8031-4595-8930-8761fb6bbe10/</t>
+  </si>
+  <si>
+    <t>デジタル臨時行政調査会（第4回）（令和4年6月3日開催）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/668823c8-2cfb-488d-a13d-79ab52bed22f/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第3回デジタル社会推進会議（令和4年6月6日開催）
+</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView showGridLines="0" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2826,6 +2845,28 @@
       </c>
       <c r="C114" s="8" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18.75">
+      <c r="A115" s="6">
+        <v>44719</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="27">
+      <c r="A116" s="6">
+        <v>44719</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2903,18 +2944,20 @@
     <hyperlink ref="B112" r:id="rId67" xr:uid="{6609DA41-7FC3-4F14-B32E-002E3D85A2DF}"/>
     <hyperlink ref="B113" r:id="rId68" xr:uid="{4C02F0D8-B240-4ABA-BD19-3F558B59809B}"/>
     <hyperlink ref="B114" r:id="rId69" xr:uid="{C9D05BA6-8451-43B1-B203-9D66A74D9193}"/>
+    <hyperlink ref="B115" r:id="rId70" xr:uid="{EBBFDFA9-4BDC-45E4-B2CE-B9A341EB4A22}"/>
+    <hyperlink ref="B116" r:id="rId71" xr:uid="{35270625-F396-4873-89E2-85FA784FB65B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId70"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId72"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="A64:C64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2945,10 +2988,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2956,10 +2999,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2967,10 +3010,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2978,10 +3021,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2989,10 +3032,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -3000,10 +3043,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3011,10 +3054,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3022,10 +3065,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3033,10 +3076,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -3044,10 +3087,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -3055,10 +3098,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -3066,10 +3109,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3077,10 +3120,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -3088,10 +3131,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3099,10 +3142,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -3110,10 +3153,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3121,10 +3164,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3132,10 +3175,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3143,10 +3186,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -3154,10 +3197,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3165,10 +3208,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3176,10 +3219,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3187,10 +3230,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3198,10 +3241,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3209,10 +3252,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3220,10 +3263,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3231,10 +3274,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3242,10 +3285,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3253,10 +3296,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3264,10 +3307,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3275,10 +3318,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3286,10 +3329,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3297,10 +3340,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3308,10 +3351,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3319,10 +3362,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3330,10 +3373,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3341,10 +3384,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3352,10 +3395,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3363,10 +3406,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3374,10 +3417,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3385,10 +3428,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3396,10 +3439,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3407,10 +3450,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3429,10 +3472,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3440,10 +3483,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3451,10 +3494,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3462,10 +3505,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3473,10 +3516,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3484,10 +3527,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3495,10 +3538,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3506,10 +3549,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3517,10 +3560,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3528,10 +3571,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3539,10 +3582,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3550,10 +3593,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3561,10 +3604,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3572,10 +3615,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3583,10 +3626,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3594,10 +3637,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3605,10 +3648,10 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75">
@@ -3616,14 +3659,33 @@
         <v>44708</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75">
-      <c r="B64" s="12"/>
+      <c r="A64" s="6">
+        <v>44715</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="27">
+      <c r="A65" s="6">
+        <v>44718</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
@@ -3675,33 +3737,15 @@
     <hyperlink ref="B61" r:id="rId42" xr:uid="{8B7BA1E9-04E3-42F2-ADDD-E651A345A3E4}"/>
     <hyperlink ref="B62" r:id="rId43" xr:uid="{13606FA2-66D2-47F5-9FB2-1B5858D41A3F}"/>
     <hyperlink ref="B63" r:id="rId44" xr:uid="{4E404BE4-9EE0-43F8-B12C-18FE3BF4794C}"/>
+    <hyperlink ref="B64" r:id="rId45" xr:uid="{CCDA5157-8D77-41C6-A4E4-D456C1B01ECB}"/>
+    <hyperlink ref="B65" r:id="rId46" xr:uid="{FAE4875E-E632-465E-839C-CBF8CA44EBD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId47"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3944,14 +3988,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5091E-C5FF-401D-9EA0-76DD6B8BF840}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="596" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{25620A0E-B2D7-4EA1-A12A-87FC0BC024C9}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF30B5A-0AF2-4583-B941-3F79D7E6664A}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="343">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -703,6 +703,12 @@
   </si>
   <si>
     <t>「デジタル社会の実現に向けた重点計画」デジタル庁アイデアボックスにお寄せいただいたご意見について公表します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/9efcc402-5a17-4f37-80bd-5f4fc8e41bcf/</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービス マイナポータル「転出届・転入予約」機能のAPI仕様書（β版）等の情報提供を行います</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1575,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2867,6 +2873,17 @@
       </c>
       <c r="C116" s="8" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="27">
+      <c r="A117" s="6">
+        <v>44722</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2946,9 +2963,10 @@
     <hyperlink ref="B114" r:id="rId69" xr:uid="{C9D05BA6-8451-43B1-B203-9D66A74D9193}"/>
     <hyperlink ref="B115" r:id="rId70" xr:uid="{EBBFDFA9-4BDC-45E4-B2CE-B9A341EB4A22}"/>
     <hyperlink ref="B116" r:id="rId71" xr:uid="{35270625-F396-4873-89E2-85FA784FB65B}"/>
+    <hyperlink ref="B117" r:id="rId72" xr:uid="{D79ED777-7EE3-45AF-BCB0-25F0FAC71C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -2956,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B59" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -2988,10 +3006,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2999,10 +3017,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3010,10 +3028,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3021,10 +3039,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3032,10 +3050,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -3043,10 +3061,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3054,10 +3072,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3065,10 +3083,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3076,10 +3094,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -3087,10 +3105,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -3098,10 +3116,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -3109,10 +3127,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3120,10 +3138,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -3131,10 +3149,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3142,10 +3160,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -3153,10 +3171,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3164,10 +3182,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3175,10 +3193,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3186,10 +3204,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -3197,10 +3215,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3208,10 +3226,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3219,10 +3237,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3230,10 +3248,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3241,10 +3259,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3252,10 +3270,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3263,10 +3281,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3274,10 +3292,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3285,10 +3303,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3296,10 +3314,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3307,10 +3325,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3318,10 +3336,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3329,10 +3347,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3340,10 +3358,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3351,10 +3369,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3362,10 +3380,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3373,10 +3391,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3384,10 +3402,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3395,10 +3413,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3406,10 +3424,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3417,10 +3435,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3428,10 +3446,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3439,10 +3457,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3450,10 +3468,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3472,10 +3490,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3483,10 +3501,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3494,10 +3512,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3505,10 +3523,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3516,10 +3534,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3527,10 +3545,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3538,10 +3556,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3549,10 +3567,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3560,10 +3578,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3571,10 +3589,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3582,10 +3600,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3593,10 +3611,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3604,10 +3622,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3615,10 +3633,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3626,10 +3644,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3637,10 +3655,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3648,10 +3666,10 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75">
@@ -3659,10 +3677,10 @@
         <v>44708</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75">
@@ -3670,10 +3688,10 @@
         <v>44715</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
@@ -3681,10 +3699,10 @@
         <v>44718</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3746,6 +3764,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8AEDAD6AED2324B85895B56DAA1828A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8df45a1a06d31d5ac52bfcb985b890c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f99d2c97-4a52-4f93-80a0-18aef97831ff" xmlns:ns3="51aa5701-5c89-4b18-ad02-d8592833e883" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="081affc6ef6b6d06d1efb398a9677c21" ns2:_="" ns3:_="">
     <xsd:import namespace="f99d2c97-4a52-4f93-80a0-18aef97831ff"/>
@@ -3988,28 +4026,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f99d2c97-4a52-4f93-80a0-18aef97831ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa5701-5c89-4b18-ad02-d8592833e883" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4017,5 +4035,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51E95481-8921-4D19-BDEA-7C96D82A61FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4620E00-D2B9-4D17-8022-325CD3114061}"/>
 </file>
--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF30B5A-0AF2-4583-B941-3F79D7E6664A}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4208DAD-56AD-47CE-B637-B8B98D15D4BB}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="355">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -711,6 +711,36 @@
     <t>引越しワンストップサービス マイナポータル「転出届・転入予約」機能のAPI仕様書（β版）等の情報提供を行います</t>
   </si>
   <si>
+    <t>https://www.digital.go.jp/news/2ce89a12-4082-45dc-a88f-32c0fe6a835a/</t>
+  </si>
+  <si>
+    <t>「ISMAP-LIUクラウドサービス登録規則（案）」等に対する意見募集を行います</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/9d248300-c021-4976-9f9a-d2d8682f1cba/</t>
+  </si>
+  <si>
+    <t>デジタル庁の偽サイトにご注意ください（注意喚起）</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/e91b13a9-fcee-4144-b90d-7d0a5c47c5f0/</t>
+  </si>
+  <si>
+    <t>こどもに関する各種データの連携による支援実証事業の実証事業計画書と実証事業ガイドラインを公表しました</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/c8b4052c-5ffc-4f93-bea4-4ea799f57154/</t>
+  </si>
+  <si>
+    <t>情報システム調達改革検討会を設置します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/6edaefb0-6d39-4d7c-b2c9-792bd4457a13/</t>
+  </si>
+  <si>
+    <t>引越しワンストップサービス マイナポータルを通じた転出届・転入（転居）予約開始に向けた検討会及び検証等に協力いただく自治体が決まりました</t>
+  </si>
+  <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1120,6 +1150,12 @@
   <si>
     <t xml:space="preserve">第3回デジタル社会推進会議（令和4年6月6日開催）
 </t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/councils/eeb9a9a5-34a4-471f-9f59-678fcc1b95a9/</t>
+  </si>
+  <si>
+    <t>こどもに関する情報・データ連携 副大臣プロジェクトチーム（第4回）（令和4年6月14日開催）</t>
   </si>
 </sst>
 </file>
@@ -1581,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2884,6 +2920,61 @@
       </c>
       <c r="C117" s="8" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18.75">
+      <c r="A118" s="6">
+        <v>44727</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18.75">
+      <c r="A119" s="6">
+        <v>44727</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="27">
+      <c r="A120" s="6">
+        <v>44729</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18.75">
+      <c r="A121" s="6">
+        <v>44732</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="27">
+      <c r="A122" s="6">
+        <v>44732</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2964,18 +3055,23 @@
     <hyperlink ref="B115" r:id="rId70" xr:uid="{EBBFDFA9-4BDC-45E4-B2CE-B9A341EB4A22}"/>
     <hyperlink ref="B116" r:id="rId71" xr:uid="{35270625-F396-4873-89E2-85FA784FB65B}"/>
     <hyperlink ref="B117" r:id="rId72" xr:uid="{D79ED777-7EE3-45AF-BCB0-25F0FAC71C6B}"/>
+    <hyperlink ref="B118" r:id="rId73" xr:uid="{13AF8D6C-691D-432D-8AC2-DBB7D5B74EA8}"/>
+    <hyperlink ref="B119" r:id="rId74" xr:uid="{E121CB57-537E-4EFD-94DF-964A1F627732}"/>
+    <hyperlink ref="B120" r:id="rId75" xr:uid="{55028A57-7C60-49A4-91F5-E46F7A9B2769}"/>
+    <hyperlink ref="B121" r:id="rId76" xr:uid="{1A2F3DC2-B27B-4FDF-AEA2-1A07A1559164}"/>
+    <hyperlink ref="B122" r:id="rId77" xr:uid="{42612702-A8C0-4B5D-ADA4-F279A9652BA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId78"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93295A-5909-4E59-B458-BAFAD7C38BEF}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3006,10 +3102,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3017,10 +3113,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3028,10 +3124,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,10 +3135,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3050,10 +3146,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -3061,10 +3157,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3072,10 +3168,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3083,10 +3179,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3094,10 +3190,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -3105,10 +3201,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -3116,10 +3212,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -3127,10 +3223,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3138,10 +3234,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -3149,10 +3245,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3160,10 +3256,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -3171,10 +3267,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3182,10 +3278,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3193,10 +3289,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3204,10 +3300,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -3215,10 +3311,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3226,10 +3322,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3237,10 +3333,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3248,10 +3344,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3259,10 +3355,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3270,10 +3366,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3281,10 +3377,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3292,10 +3388,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3303,10 +3399,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3314,10 +3410,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3325,10 +3421,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3336,10 +3432,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3347,10 +3443,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3358,10 +3454,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3369,10 +3465,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3380,10 +3476,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3391,10 +3487,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3402,10 +3498,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3413,10 +3509,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3424,10 +3520,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3435,10 +3531,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3446,10 +3542,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3457,10 +3553,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3468,10 +3564,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3490,10 +3586,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3501,10 +3597,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3512,10 +3608,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3523,10 +3619,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3534,10 +3630,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3545,10 +3641,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3556,10 +3652,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3567,10 +3663,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3578,10 +3674,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3589,10 +3685,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3600,10 +3696,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3611,10 +3707,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3622,10 +3718,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3633,10 +3729,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3644,10 +3740,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3655,10 +3751,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3666,10 +3762,10 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75">
@@ -3677,10 +3773,10 @@
         <v>44708</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75">
@@ -3688,10 +3784,10 @@
         <v>44715</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
@@ -3699,10 +3795,21 @@
         <v>44718</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>342</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27">
+      <c r="A66" s="6">
+        <v>44726</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3757,9 +3864,10 @@
     <hyperlink ref="B63" r:id="rId44" xr:uid="{4E404BE4-9EE0-43F8-B12C-18FE3BF4794C}"/>
     <hyperlink ref="B64" r:id="rId45" xr:uid="{CCDA5157-8D77-41C6-A4E4-D456C1B01ECB}"/>
     <hyperlink ref="B65" r:id="rId46" xr:uid="{FAE4875E-E632-465E-839C-CBF8CA44EBD5}"/>
+    <hyperlink ref="B66" r:id="rId47" xr:uid="{FEBC79E9-0BAD-48DD-83AE-A8524EBB7B69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId48"/>
 </worksheet>
 </file>
 

--- a/jp-go-digital-news.xlsx
+++ b/jp-go-digital-news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/msteams_b02c6f/Shared Documents/デジタル庁/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4208DAD-56AD-47CE-B637-B8B98D15D4BB}"/>
+  <xr:revisionPtr revIDLastSave="631" documentId="13_ncr:1_{A6AF5CD4-43FA-4A5F-AABF-B12F9C5D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2212E4-3368-4301-AAB1-3FD06BEEEFEB}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{489C68F7-6CBA-4553-A454-B40C7926A6A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="358">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="2">
@@ -739,6 +739,15 @@
   </si>
   <si>
     <t>引越しワンストップサービス マイナポータルを通じた転出届・転入（転居）予約開始に向けた検討会及び検証等に協力いただく自治体が決まりました</t>
+  </si>
+  <si>
+    <t>デジタル庁情報システム調達改革検討会を設置します</t>
+  </si>
+  <si>
+    <t>https://www.digital.go.jp/news/e5850ea6-215b-44ed-88cc-8dcf5c204919/</t>
+  </si>
+  <si>
+    <t>令和4年度「こども霞が関見学デー」の開催日をお知らせします</t>
   </si>
   <si>
     <t>https://www.digital.go.jp/meeting/posts/kxRzNtGE</t>
@@ -1617,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF3BB-700E-4E17-BDBA-B386B78DC2E3}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2975,6 +2984,28 @@
       </c>
       <c r="C122" s="8" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18.75">
+      <c r="A123" s="6">
+        <v>44732</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18.75">
+      <c r="A124" s="6">
+        <v>44733</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3060,9 +3091,11 @@
     <hyperlink ref="B120" r:id="rId75" xr:uid="{55028A57-7C60-49A4-91F5-E46F7A9B2769}"/>
     <hyperlink ref="B121" r:id="rId76" xr:uid="{1A2F3DC2-B27B-4FDF-AEA2-1A07A1559164}"/>
     <hyperlink ref="B122" r:id="rId77" xr:uid="{42612702-A8C0-4B5D-ADA4-F279A9652BA0}"/>
+    <hyperlink ref="B123" r:id="rId78" xr:uid="{CDA4808A-F630-4A39-887C-2E608A7F5057}"/>
+    <hyperlink ref="B124" r:id="rId79" xr:uid="{D39F639C-00D1-4F1D-B6C0-CFEC2D47B750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -3102,10 +3135,10 @@
         <v>44435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3113,10 +3146,10 @@
         <v>44440</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3124,10 +3157,10 @@
         <v>44445</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3135,10 +3168,10 @@
         <v>44449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3146,10 +3179,10 @@
         <v>44449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
@@ -3157,10 +3190,10 @@
         <v>44461</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3168,10 +3201,10 @@
         <v>44467</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3179,10 +3212,10 @@
         <v>44467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3190,10 +3223,10 @@
         <v>44468</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
@@ -3201,10 +3234,10 @@
         <v>44468</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -3212,10 +3245,10 @@
         <v>44491</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
@@ -3223,10 +3256,10 @@
         <v>44491</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3234,10 +3267,10 @@
         <v>44494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -3245,10 +3278,10 @@
         <v>44504</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3256,10 +3289,10 @@
         <v>44504</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.5">
@@ -3267,10 +3300,10 @@
         <v>44516</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3278,10 +3311,10 @@
         <v>44516</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3289,10 +3322,10 @@
         <v>44516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3300,10 +3333,10 @@
         <v>44516</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75">
@@ -3311,10 +3344,10 @@
         <v>44518</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27">
@@ -3322,10 +3355,10 @@
         <v>44522</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27">
@@ -3333,10 +3366,10 @@
         <v>44526</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75">
@@ -3344,10 +3377,10 @@
         <v>44538</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75">
@@ -3355,10 +3388,10 @@
         <v>44543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75">
@@ -3366,10 +3399,10 @@
         <v>44547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75">
@@ -3377,10 +3410,10 @@
         <v>44552</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
@@ -3388,10 +3421,10 @@
         <v>44554</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75">
@@ -3399,10 +3432,10 @@
         <v>44557</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
@@ -3410,10 +3443,10 @@
         <v>44582</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
@@ -3421,10 +3454,10 @@
         <v>44586</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
@@ -3432,10 +3465,10 @@
         <v>44600</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27">
@@ -3443,10 +3476,10 @@
         <v>44606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27">
@@ -3454,10 +3487,10 @@
         <v>44609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75">
@@ -3465,10 +3498,10 @@
         <v>44609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
@@ -3476,10 +3509,10 @@
         <v>44614</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5">
@@ -3487,10 +3520,10 @@
         <v>44614</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="27">
@@ -3498,10 +3531,10 @@
         <v>44617</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75">
@@ -3509,10 +3542,10 @@
         <v>44635</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="27">
@@ -3520,10 +3553,10 @@
         <v>44636</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27">
@@ -3531,10 +3564,10 @@
         <v>44637</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75">
@@ -3542,10 +3575,10 @@
         <v>44638</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -3553,10 +3586,10 @@
         <v>44642</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -3564,10 +3597,10 @@
         <v>44643</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -3586,10 +3619,10 @@
         <v>44658</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75">
@@ -3597,10 +3630,10 @@
         <v>44659</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5">
@@ -3608,10 +3641,10 @@
         <v>44664</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="27">
@@ -3619,10 +3652,10 @@
         <v>44664</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75">
@@ -3630,10 +3663,10 @@
         <v>44665</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75">
@@ -3641,10 +3674,10 @@
         <v>44671</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75">
@@ -3652,10 +3685,10 @@
         <v>44671</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75">
@@ -3663,10 +3696,10 @@
         <v>44676</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75">
@@ -3674,10 +3707,10 @@
         <v>44678</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75">
@@ -3685,10 +3718,10 @@
         <v>44693</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27">
@@ -3696,10 +3729,10 @@
         <v>44694</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27">
@@ -3707,10 +3740,10 @@
         <v>44694</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -3718,10 +3751,10 @@
         <v>44698</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75">
@@ -3729,10 +3762,10 @@
         <v>44698</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75">
@@ -3740,10 +3773,10 @@
         <v>44699</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75">
@@ -3751,10 +3784,10 @@
         <v>44701</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75">
@@ -3762,10 +3795,10 @@
         <v>44701</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75">
@@ -3773,10 +3806,10 @@
         <v>44708</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75">
@@ -3784,10 +3817,10 @@
         <v>44715</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
@@ -3795,10 +3828,10 @@
         <v>44718</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="27">
@@ -3806,10 +3839,10 @@
         <v>44726</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
